--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC916E0-D873-4887-882C-5198654E6719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD3B42A-707E-4929-B608-80201397C68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="400" windowWidth="12200" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="3" r:id="rId3"/>
+    <sheet name="ID" sheetId="4" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="224">
   <si>
     <t>User</t>
   </si>
@@ -733,31 +734,19 @@
     <t>中樞神經系統：意識受損,心臟衰竭</t>
   </si>
   <si>
-    <t>產生編號</t>
-  </si>
-  <si>
     <t>報表編號</t>
   </si>
   <si>
-    <t>需手動將產生編號移過來</t>
-  </si>
-  <si>
     <t>REPORT_ID</t>
   </si>
   <si>
     <t>學生</t>
-  </si>
-  <si>
-    <t>1120111004012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -842,7 +831,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -888,12 +877,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1228,7 +1211,7 @@
   <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2155,680 +2138,696 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BY8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC8E65D-A07B-4404-B6F2-D384E1F2C2EA}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.296875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="11" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BW4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:75" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="J1" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="X1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="AA1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="AC1" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF1" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="BJ1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="BK1" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="BJ1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="BL1" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BM1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="BO1" s="10" t="s">
         <v>70</v>
       </c>
+      <c r="BN1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="BP1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="BQ1" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="BR1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="BS1" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="BR1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS1" s="11" t="s">
+        <v>76</v>
+      </c>
       <c r="BT1" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BU1" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BV1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="BW1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="BX1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BW1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:77" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="16" t="s">
+    <row r="2" spans="1:75" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="R2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="T2" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X2" s="4" t="s">
+      <c r="BK2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BU2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Z2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BJ2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BM2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="BO2" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="BR2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="BX2" s="12" t="s">
+      <c r="BV2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BY2" s="4"/>
+      <c r="BW2" s="4"/>
     </row>
-    <row r="3" spans="1:77" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:75" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AB3" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AC3" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="AG3" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AI3" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AJ3" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL3" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AN3" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AO3" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AQ3" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AR3" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AT3" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AU3" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AX3" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AY3" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AZ3" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="BA3" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="BC3" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="BD3" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="BE3" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="BF3" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BG3" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BH3" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="BI3" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BL3" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="BQ3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BR3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BS3" s="4" t="s">
         <v>183</v>
       </c>
+      <c r="BR3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="BS3" s="11" t="s">
+        <v>185</v>
+      </c>
       <c r="BT3" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="BU3" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="BV3" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BW3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="BX3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:77" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" s="11">
+    <row r="4" spans="1:75" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="16">
+        <v>1017</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="16">
-        <v>1017</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2844,11 +2843,11 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="Z4" s="4"/>
-      <c r="AA4" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -2891,22 +2890,12 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="4"/>
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="13"/>
       <c r="BT4" s="13"/>
       <c r="BU4" s="13"/>
       <c r="BV4" s="13"/>
-      <c r="BW4" s="13"/>
-      <c r="BX4" s="13"/>
-      <c r="BY4" s="4"/>
-    </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>226</v>
-      </c>
+      <c r="BW4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD3B42A-707E-4929-B608-80201397C68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806591D6-2747-4F44-8573-B5A55C1ABFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="ID" sheetId="4" r:id="rId3"/>
-    <sheet name="update" sheetId="3" r:id="rId4"/>
+    <sheet name="update" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="222">
   <si>
     <t>User</t>
   </si>
@@ -732,12 +731,6 @@
   </si>
   <si>
     <t>中樞神經系統：意識受損,心臟衰竭</t>
-  </si>
-  <si>
-    <t>報表編號</t>
-  </si>
-  <si>
-    <t>REPORT_ID</t>
   </si>
   <si>
     <t>學生</t>
@@ -2138,45 +2131,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC8E65D-A07B-4404-B6F2-D384E1F2C2EA}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BW4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BW4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -2844,7 +2802,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806591D6-2747-4F44-8573-B5A55C1ABFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9164D-D7FC-4135-B2C4-07F1DC555101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2230" yWindow="260" windowWidth="9830" windowHeight="9420" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="560" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
-    <sheet name="update" sheetId="4" r:id="rId3"/>
+    <sheet name="update" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="223">
   <si>
     <t>User</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>中樞神經系統：意識受損,心臟衰竭</t>
+  </si>
+  <si>
+    <t>重症少填資料</t>
   </si>
   <si>
     <t>學生</t>
@@ -1201,10 +1204,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BW4"/>
+  <dimension ref="A1:BW5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2123,6 +2126,152 @@
       </c>
       <c r="BW4" s="4"/>
     </row>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12345</v>
+      </c>
+      <c r="M5" s="4">
+        <v>54321</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="P5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="S5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>-5</v>
+      </c>
+      <c r="U5" s="4">
+        <v>-4</v>
+      </c>
+      <c r="V5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="13"/>
+      <c r="BS5" s="13"/>
+      <c r="BT5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="BV5" s="13"/>
+      <c r="BW5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,11 +2280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -2802,7 +2951,7 @@
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E9164D-D7FC-4135-B2C4-07F1DC555101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC8C97-9CEB-40E1-BEAE-9E8B3C4C6EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="560" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="228">
   <si>
     <t>User</t>
   </si>
@@ -738,12 +738,32 @@
   <si>
     <t>學生</t>
   </si>
+  <si>
+    <t>預期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>數值設定須為文字/ True 或 False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>False</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +798,13 @@
       <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -827,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -873,6 +900,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1161,12 +1194,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1204,78 +1237,79 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BW5"/>
+  <dimension ref="A1:BX5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.796875" customWidth="1"/>
-    <col min="19" max="19" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.3984375" customWidth="1"/>
-    <col min="29" max="29" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.3984375" customWidth="1"/>
-    <col min="32" max="32" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.09765625" customWidth="1"/>
-    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26" bestFit="1" customWidth="1"/>
-    <col min="38" max="43" width="26" customWidth="1"/>
-    <col min="44" max="45" width="9.59765625" customWidth="1"/>
-    <col min="46" max="46" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="51" max="52" width="22.19921875" customWidth="1"/>
-    <col min="53" max="53" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="22.19921875" customWidth="1"/>
-    <col min="57" max="57" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="32.59765625" customWidth="1"/>
-    <col min="60" max="60" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="63" max="65" width="23.59765625" customWidth="1"/>
-    <col min="66" max="66" width="31" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="32.3984375" customWidth="1"/>
-    <col min="70" max="70" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="20" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.796875" customWidth="1"/>
+    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.3984375" customWidth="1"/>
+    <col min="30" max="30" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.3984375" customWidth="1"/>
+    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.09765625" customWidth="1"/>
+    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="26" bestFit="1" customWidth="1"/>
+    <col min="39" max="44" width="26" customWidth="1"/>
+    <col min="45" max="46" width="9.59765625" customWidth="1"/>
+    <col min="47" max="47" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="22.19921875" customWidth="1"/>
+    <col min="54" max="54" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="22.19921875" customWidth="1"/>
+    <col min="58" max="58" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="32.59765625" customWidth="1"/>
+    <col min="61" max="61" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="64" max="66" width="23.59765625" customWidth="1"/>
+    <col min="67" max="67" width="31" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="32.3984375" customWidth="1"/>
+    <col min="71" max="71" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" ht="43.5" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -1285,235 +1319,240 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BS1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BT1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BU1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BV1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BW1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:75" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1521,164 +1560,165 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="AE2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="AH2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>103</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BB2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="BC2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="BG2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="BH2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BM2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4" t="s">
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BR2" s="12"/>
       <c r="BS2" s="12"/>
-      <c r="BT2" s="4" t="s">
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BU2" s="12" t="s">
+      <c r="BV2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BW2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
     </row>
-    <row r="3" spans="1:75" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
@@ -1688,224 +1728,227 @@
       <c r="C3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BR3" s="11" t="s">
+      <c r="BS3" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BT3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BU3" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BV3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BW3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" ht="48.5" customHeight="1">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -1915,144 +1958,144 @@
       <c r="C4" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="4">
+      <c r="D4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>12345</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>54321</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="P4" s="4" t="b">
+      <c r="Q4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>-1</v>
       </c>
-      <c r="R4" s="4">
+      <c r="S4" s="4">
         <v>-5</v>
       </c>
-      <c r="S4" s="4" t="b">
+      <c r="T4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="4">
+      <c r="U4" s="4">
         <v>-5</v>
       </c>
-      <c r="U4" s="4">
+      <c r="V4" s="4">
         <v>-4</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="W4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Z4" s="4" t="b">
+      <c r="AA4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AB4" s="4">
         <v>1</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AD4" s="4">
         <v>-14</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AE4" s="4">
         <v>-12</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AF4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AF4" s="4">
+      <c r="AG4" s="4">
         <v>-14</v>
       </c>
-      <c r="AG4" s="4">
+      <c r="AH4" s="4">
         <v>-12</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="4">
+      <c r="AJ4" s="4">
         <v>-14</v>
       </c>
-      <c r="AJ4" s="4">
+      <c r="AK4" s="4">
         <v>-12</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AL4" s="4">
+      <c r="AM4" s="4">
         <v>1</v>
       </c>
-      <c r="AM4" s="4" t="b">
+      <c r="AN4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AR4" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="AT4" s="4" t="b">
+      <c r="AU4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AV4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AW4" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AW4" s="4">
+      <c r="AX4" s="4">
         <v>5</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>-10</v>
       </c>
       <c r="AY4" s="4">
         <v>-10</v>
@@ -2070,63 +2113,66 @@
         <v>-10</v>
       </c>
       <c r="BD4" s="4">
+        <v>-10</v>
+      </c>
+      <c r="BE4" s="4">
         <v>2</v>
       </c>
-      <c r="BE4" s="4" t="s">
+      <c r="BF4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="BF4" s="4" t="s">
+      <c r="BG4" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="BG4" s="4" t="s">
+      <c r="BH4" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="BH4" s="4">
+      <c r="BI4" s="4">
         <v>-10</v>
       </c>
-      <c r="BI4" s="4" t="s">
+      <c r="BJ4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="BK4" s="4"/>
       <c r="BL4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="BM4" s="4">
+      <c r="BM4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="4">
         <v>-7</v>
       </c>
-      <c r="BN4" s="4" t="s">
+      <c r="BO4" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="BO4" s="4" t="s">
+      <c r="BP4" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="BP4" s="4" t="b">
+      <c r="BQ4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="BQ4" s="4" t="s">
+      <c r="BR4" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BR4" s="13" t="s">
+      <c r="BS4" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="BS4" s="13" t="s">
+      <c r="BT4" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="BT4" s="13" t="b">
+      <c r="BU4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="BU4" s="13" t="s">
+      <c r="BV4" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="BV4" s="13" t="s">
+      <c r="BW4" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2136,99 +2182,101 @@
       <c r="C5" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>12345</v>
       </c>
-      <c r="M5" s="4">
+      <c r="N5" s="4">
         <v>54321</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="P5" s="4" t="b">
+      <c r="Q5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="4">
         <v>-1</v>
       </c>
-      <c r="R5" s="4">
+      <c r="S5" s="4">
         <v>-5</v>
       </c>
-      <c r="S5" s="4" t="b">
+      <c r="T5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="4">
+      <c r="U5" s="4">
         <v>-5</v>
       </c>
-      <c r="U5" s="4">
+      <c r="V5" s="4">
         <v>-4</v>
       </c>
-      <c r="V5" s="4" t="b">
+      <c r="W5" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W5" s="4"/>
       <c r="X5" s="4"/>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="Z5" s="4" t="b">
+      <c r="AA5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AB5" s="4">
         <v>2</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AC5" s="4">
+      <c r="AD5" s="4">
         <v>-14</v>
       </c>
-      <c r="AD5" s="4">
+      <c r="AE5" s="4">
         <v>-12</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AF5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AF5" s="4">
+      <c r="AG5" s="4">
         <v>-14</v>
       </c>
-      <c r="AG5" s="4">
+      <c r="AH5" s="4">
         <v>-12</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AI5" s="4">
+      <c r="AJ5" s="4">
         <v>-14</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AK5" s="4">
         <v>-12</v>
       </c>
-      <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
@@ -2261,16 +2309,17 @@
       <c r="BO5" s="4"/>
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
-      <c r="BR5" s="13"/>
+      <c r="BR5" s="4"/>
       <c r="BS5" s="13"/>
-      <c r="BT5" s="13" t="b">
+      <c r="BT5" s="13"/>
+      <c r="BU5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="BU5" s="13" t="s">
+      <c r="BV5" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="BV5" s="13"/>
-      <c r="BW5" s="4"/>
+      <c r="BW5" s="13"/>
+      <c r="BX5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2281,15 +2330,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BW4"/>
+  <dimension ref="A1:BX4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76" ht="43.5" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
@@ -2299,235 +2351,240 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AV1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AW1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BC1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BD1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BG1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BH1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BI1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BM1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BP1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BS1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BT1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BU1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BV1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BW1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:75" s="2" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -2535,164 +2592,165 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="V2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>91</v>
       </c>
       <c r="AE2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="AG2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="AH2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="AJ2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
-      <c r="AT2" s="4" t="s">
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AU2" s="4"/>
       <c r="AV2" s="4"/>
-      <c r="AW2" s="4" t="s">
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="AZ2" s="4" t="s">
         <v>103</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BB2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="BC2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="BF2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="BG2" s="4" t="s">
         <v>108</v>
       </c>
       <c r="BH2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4" t="s">
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="4" t="s">
+      <c r="BL2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BM2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BN2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4" t="s">
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BP2" s="4" t="s">
+      <c r="BQ2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BR2" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BR2" s="12"/>
       <c r="BS2" s="12"/>
-      <c r="BT2" s="4" t="s">
+      <c r="BT2" s="12"/>
+      <c r="BU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BU2" s="12" t="s">
+      <c r="BV2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BW2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BW2" s="4"/>
+      <c r="BX2" s="4"/>
     </row>
-    <row r="3" spans="1:75" s="3" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:76" s="3" customFormat="1" ht="53" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>115</v>
       </c>
@@ -2702,224 +2760,227 @@
       <c r="C3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="BR3" s="11" t="s">
+      <c r="BS3" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BT3" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BU3" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BV3" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BW3" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:75" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" ht="48.5" customHeight="1">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -2927,13 +2988,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="16">
+      <c r="D4" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="16">
         <v>1017</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -2950,10 +3013,10 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -2997,12 +3060,13 @@
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
-      <c r="BR4" s="13"/>
+      <c r="BR4" s="4"/>
       <c r="BS4" s="13"/>
       <c r="BT4" s="13"/>
       <c r="BU4" s="13"/>
       <c r="BV4" s="13"/>
-      <c r="BW4" s="4"/>
+      <c r="BW4" s="13"/>
+      <c r="BX4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -1,28 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DC8C97-9CEB-40E1-BEAE-9E8B3C4C6EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA944858-E090-4F81-A50C-50936165530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="160" windowWidth="12270" windowHeight="9420" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="report" sheetId="2" r:id="rId2"/>
     <sheet name="update" sheetId="3" r:id="rId3"/>
+    <sheet name="清單" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="二林鎮">清單!$D$11</definedName>
+    <definedName name="士林區">清單!$D$3</definedName>
+    <definedName name="中壢區">清單!$D$4</definedName>
+    <definedName name="六甲區">清單!$D$6</definedName>
+    <definedName name="台中市">清單!$C$5</definedName>
+    <definedName name="台北市">清單!$C$3</definedName>
+    <definedName name="台東縣">清單!$C$16</definedName>
+    <definedName name="台南市">清單!$C$6</definedName>
+    <definedName name="安樂區">清單!$D$19</definedName>
+    <definedName name="竹北市">清單!$D$9</definedName>
+    <definedName name="竹田鄉">清單!$D$15</definedName>
+    <definedName name="西_區">清單!$D$21</definedName>
+    <definedName name="宜蘭縣">清單!$C$8</definedName>
+    <definedName name="東引鄉">清單!$D$23</definedName>
+    <definedName name="板橋區">清單!$D$2</definedName>
+    <definedName name="林內鄉">清單!$D$13</definedName>
+    <definedName name="花蓮縣">清單!$C$17</definedName>
+    <definedName name="金門縣">清單!$C$22</definedName>
+    <definedName name="金城鎮">清單!$D$22</definedName>
+    <definedName name="南投縣">清單!$C$12</definedName>
+    <definedName name="屏東縣">清單!$C$15</definedName>
+    <definedName name="美濃區">清單!$D$7</definedName>
+    <definedName name="苑裡鎮">清單!$D$10</definedName>
+    <definedName name="苗栗縣">清單!$C$10</definedName>
+    <definedName name="香山區">清單!$D$20</definedName>
+    <definedName name="桃園市">清單!$C$4</definedName>
+    <definedName name="烏日區">清單!$D$5</definedName>
+    <definedName name="馬公市">清單!$D$18</definedName>
+    <definedName name="高雄市">清單!$C$7</definedName>
+    <definedName name="基隆市">清單!$C$19</definedName>
+    <definedName name="梅山鄉">清單!$D$14</definedName>
+    <definedName name="連江縣">清單!$C$23</definedName>
+    <definedName name="魚池鄉">清單!$D$12</definedName>
+    <definedName name="富里鄉">清單!$D$17</definedName>
+    <definedName name="雲林縣">清單!$C$13</definedName>
+    <definedName name="新北市">清單!$C$2</definedName>
+    <definedName name="新竹市">清單!$C$20</definedName>
+    <definedName name="新竹縣">清單!$C$9</definedName>
+    <definedName name="嘉義市">清單!$C$21</definedName>
+    <definedName name="嘉義縣">清單!$C$14</definedName>
+    <definedName name="彰化縣">清單!$C$11</definedName>
+    <definedName name="澎湖縣">清單!$C$18</definedName>
+    <definedName name="羅東鎮">清單!$D$8</definedName>
+    <definedName name="蘭嶼鄉">清單!$D$16</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8ADBC288-CE2E-4A5C-9D81-6F08492C863D}</author>
+    <author>tc={A48E627A-52A9-4111-A3B4-40B8EE2A61BC}</author>
+    <author>tc={08BAA3F7-94FA-4B47-BB23-90976B0FEED6}</author>
+    <author>tc={A9F14756-6487-4E0B-952A-98DE67F78172}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BP4" authorId="1" shapeId="0" xr:uid="{A48E627A-52A9-4111-A3B4-40B8EE2A61BC}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
+      </text>
+    </comment>
+    <comment ref="BV4" authorId="2" shapeId="0" xr:uid="{08BAA3F7-94FA-4B47-BB23-90976B0FEED6}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
+      </text>
+    </comment>
+    <comment ref="BW4" authorId="3" shapeId="0" xr:uid="{A9F14756-6487-4E0B-952A-98DE67F78172}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={509D78F1-4519-406F-918C-C467C35AE45A}</author>
+    <author>tc={CFDF362C-0131-42CB-B226-6BFC9FC77938}</author>
+    <author>tc={24A22BAB-D1F6-4062-B0A1-522293678CEA}</author>
+    <author>tc={E0761CDA-D507-4E8E-A241-83E7C24F47B2}</author>
+    <author>tc={0956DE4B-BE21-4FF3-A892-0FFF7C786459}</author>
+  </authors>
+  <commentList>
+    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{509D78F1-4519-406F-918C-C467C35AE45A}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BP4" authorId="1" shapeId="0" xr:uid="{CFDF362C-0131-42CB-B226-6BFC9FC77938}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
+      </text>
+    </comment>
+    <comment ref="BV4" authorId="2" shapeId="0" xr:uid="{24A22BAB-D1F6-4062-B0A1-522293678CEA}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
+      </text>
+    </comment>
+    <comment ref="BW4" authorId="3" shapeId="0" xr:uid="{E0761CDA-D507-4E8E-A241-83E7C24F47B2}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</t>
+      </text>
+    </comment>
+    <comment ref="BY4" authorId="4" shapeId="0" xr:uid="{0956DE4B-BE21-4FF3-A892-0FFF7C786459}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="453">
   <si>
     <t>User</t>
   </si>
@@ -289,13 +451,6 @@
   </si>
   <si>
     <t>前者選 '其他症狀' 需填寫</t>
-  </si>
-  <si>
-    <t>前者為TRUE需填寫 可複選
-輸入1~3
-1 國內旅遊史
-2 國外旅遊史
-3 國外居住史</t>
   </si>
   <si>
     <t>旅遊史: 1
@@ -664,9 +819,6 @@
     <t>屏東縣</t>
   </si>
   <si>
-    <t>竹田鄉</t>
-  </si>
-  <si>
     <t>出血症狀,嘔吐,其他症狀</t>
   </si>
   <si>
@@ -682,9 +834,6 @@
     <t>USA 美國</t>
   </si>
   <si>
-    <t>GBR 英國</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -700,12 +849,6 @@
     <t>測試身分</t>
   </si>
   <si>
-    <t>竹田村</t>
-  </si>
-  <si>
-    <t>測試地址</t>
-  </si>
-  <si>
     <t>護理之家</t>
   </si>
   <si>
@@ -731,9 +874,6 @@
   </si>
   <si>
     <t>中樞神經系統：意識受損,心臟衰竭</t>
-  </si>
-  <si>
-    <t>重症少填資料</t>
   </si>
   <si>
     <t>學生</t>
@@ -751,11 +891,784 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>False</t>
+    <t>縣市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>國家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>接觸動物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位類型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>肺外依據</t>
+  </si>
+  <si>
+    <t>非本國籍居民身份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>機構類別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻狀況</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X光診斷結果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>檢體種類</t>
+  </si>
+  <si>
+    <t>病理報告結果</t>
+  </si>
+  <si>
+    <t>塗片結果</t>
+  </si>
+  <si>
+    <t>PCR結果</t>
+  </si>
+  <si>
+    <t>培養結果</t>
+  </si>
+  <si>
+    <t>菌種鑑定結果</t>
+  </si>
+  <si>
+    <t>醫護及其他醫事人員</t>
+  </si>
+  <si>
+    <t>AFG 阿富汗</t>
+  </si>
+  <si>
+    <t>羊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病管制所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核菌腦膜炎(013)</t>
+  </si>
+  <si>
+    <t>外籍勞工</t>
+  </si>
+  <si>
+    <t>榮譽國民之家</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>血液</t>
+  </si>
+  <si>
+    <t>疑似</t>
+  </si>
+  <si>
+    <t>陽性1+</t>
+  </si>
+  <si>
+    <t>陽性</t>
+  </si>
+  <si>
+    <t>MTBC陰性</t>
+  </si>
+  <si>
+    <t>台北市</t>
+  </si>
+  <si>
+    <t>ALB 阿爾巴尼亞</t>
+  </si>
+  <si>
+    <t>鼠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋巴結核(014)</t>
+  </si>
+  <si>
+    <t>外籍人士</t>
+  </si>
+  <si>
+    <t>異常，但無空洞</t>
+  </si>
+  <si>
+    <t>痰</t>
+  </si>
+  <si>
+    <t>已驗未出</t>
+  </si>
+  <si>
+    <t>陽性2+</t>
+  </si>
+  <si>
+    <t>陰性</t>
+  </si>
+  <si>
+    <t>無法判定</t>
+  </si>
+  <si>
+    <t>照服員或個人健康照顧工作人員</t>
+  </si>
+  <si>
+    <t>桃園市</t>
+  </si>
+  <si>
+    <t>ATA 南極洲</t>
+  </si>
+  <si>
+    <t>馬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>衛生所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨及關節結核(015)</t>
+  </si>
+  <si>
+    <t>外籍配偶</t>
+  </si>
+  <si>
+    <t>身心障礙福利</t>
+  </si>
+  <si>
+    <t>喪偶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>異常，且有空洞</t>
+  </si>
+  <si>
+    <t>腦脊髓液</t>
+  </si>
+  <si>
+    <t>排除</t>
+  </si>
+  <si>
+    <t>陽性3+</t>
+  </si>
+  <si>
+    <t>MTBC</t>
+  </si>
+  <si>
+    <t>保母或兒童照顧工作人員</t>
+  </si>
+  <si>
+    <t>DZA 阿爾及利亞</t>
+  </si>
+  <si>
+    <t>雞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>醫院</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泌尿及生殖系統結核(016)</t>
+  </si>
+  <si>
+    <t>大陸人士</t>
+  </si>
+  <si>
+    <t>托嬰中心</t>
+  </si>
+  <si>
+    <t>離婚</t>
+  </si>
+  <si>
+    <t>異常，無關結核病</t>
+  </si>
+  <si>
+    <t>胸水</t>
+  </si>
+  <si>
+    <t>確定</t>
+  </si>
+  <si>
+    <t>陽性4+</t>
+  </si>
+  <si>
+    <t>未驗</t>
+  </si>
+  <si>
+    <t>汙染</t>
+  </si>
+  <si>
+    <t>NTM</t>
+  </si>
+  <si>
+    <t>實驗室檢驗人員</t>
+  </si>
+  <si>
+    <t>台南市</t>
+  </si>
+  <si>
+    <t>ASM 美屬薩摩亞(東薩摩亞)</t>
+  </si>
+  <si>
+    <t>豬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>診所</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮膚及眼結核(017)</t>
+  </si>
+  <si>
+    <t>大陸配偶</t>
+  </si>
+  <si>
+    <t>康復之家</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>氣管洗出液</t>
+  </si>
+  <si>
+    <t>獸醫師</t>
+  </si>
+  <si>
+    <t>高雄市</t>
+  </si>
+  <si>
+    <t>AND 安道爾(安道拉)</t>
+  </si>
+  <si>
+    <t>猿猴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消化道結核(014)</t>
+  </si>
+  <si>
+    <t>少年福利</t>
+  </si>
+  <si>
+    <t>分居</t>
+  </si>
+  <si>
+    <t>陽性培養菌株</t>
+  </si>
+  <si>
+    <t>農業人員</t>
+  </si>
+  <si>
+    <t>宜蘭縣</t>
+  </si>
+  <si>
+    <t>AGO 安哥拉</t>
+  </si>
+  <si>
+    <t>犬</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他器官結核(017)</t>
+  </si>
+  <si>
+    <t>矯正機關</t>
+  </si>
+  <si>
+    <t>病理切片</t>
+  </si>
+  <si>
+    <t>Scanty</t>
+  </si>
+  <si>
+    <t>畜牧業人員</t>
+  </si>
+  <si>
+    <t>新竹縣</t>
+  </si>
+  <si>
+    <t>ATG 安地卡及巴布達 / 安提瓜和巴布達</t>
+  </si>
+  <si>
+    <t>牛</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟粒狀結核(018)</t>
+  </si>
+  <si>
+    <t>育幼院</t>
+  </si>
+  <si>
+    <t>消化去污染後痰</t>
+  </si>
+  <si>
+    <t>未檢</t>
+  </si>
+  <si>
+    <t>林業、漁業人員</t>
+  </si>
+  <si>
+    <t>苗栗縣</t>
+  </si>
+  <si>
+    <t>AZE 亞塞拜然 / 阿塞拜疆</t>
+  </si>
+  <si>
+    <t>鹿</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸肋膜結核(000)</t>
+  </si>
+  <si>
+    <t>收容或暫置中心</t>
+  </si>
+  <si>
+    <t>機師及機組員</t>
+  </si>
+  <si>
+    <t>彰化縣</t>
+  </si>
+  <si>
+    <t>ARG 阿根廷</t>
+  </si>
+  <si>
+    <t>貓</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>咽喉結核(000)</t>
+  </si>
+  <si>
+    <t>地勤及機場其他工作人員</t>
+  </si>
+  <si>
+    <t>南投縣</t>
+  </si>
+  <si>
+    <t>AUS 澳大利亞(澳洲)</t>
+  </si>
+  <si>
+    <t>鴨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>膀胱癌灌注治療(泌尿系統結核)</t>
+  </si>
+  <si>
+    <t>船舶旅運服務人員</t>
+  </si>
+  <si>
+    <t>雲林縣</t>
+  </si>
+  <si>
+    <t>AUT 奧地利</t>
+  </si>
+  <si>
+    <t>鵝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位局部病灶)</t>
+  </si>
+  <si>
+    <t>陸上旅運服務人員</t>
+  </si>
+  <si>
+    <t>嘉義縣</t>
+  </si>
+  <si>
+    <t>BHS 巴哈馬</t>
+  </si>
+  <si>
+    <t>鳥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疑似BCG不良反應(接種部位同側腋下淋巴結腫大)</t>
+  </si>
+  <si>
+    <t>廚師</t>
+  </si>
+  <si>
+    <t>BHR 巴林</t>
+  </si>
+  <si>
+    <t>鴿子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>食品製造及加工人員</t>
+  </si>
+  <si>
+    <t>台東縣</t>
+  </si>
+  <si>
+    <t>BGD 孟加拉</t>
+  </si>
+  <si>
+    <t>果子狸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐飲服務人員</t>
+  </si>
+  <si>
+    <t>花蓮縣</t>
+  </si>
+  <si>
+    <t>ARM 亞美尼亞 / 阿美尼亞</t>
+  </si>
+  <si>
+    <t>水產動物</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>教師及教務專業人員</t>
+  </si>
+  <si>
+    <t>澎湖縣</t>
+  </si>
+  <si>
+    <t>BRB 巴貝多 / 巴巴多斯</t>
+  </si>
+  <si>
+    <t>兔</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基隆市</t>
+  </si>
+  <si>
+    <t>BEL 比利時</t>
+  </si>
+  <si>
+    <t>軍人/軍校生</t>
+  </si>
+  <si>
+    <t>新竹市</t>
+  </si>
+  <si>
+    <t>BMU 百慕達(薩默斯)</t>
+  </si>
+  <si>
+    <t>人口密集機構受照顧人員</t>
+  </si>
+  <si>
+    <t>嘉義市</t>
+  </si>
+  <si>
+    <t>BTN 不丹</t>
+  </si>
+  <si>
+    <t>矯正機關戒護人員或收容人</t>
+  </si>
+  <si>
+    <t>金門縣</t>
+  </si>
+  <si>
+    <t>BOL 玻利維亞</t>
+  </si>
+  <si>
+    <t>防疫旅宿相關工作人員</t>
+  </si>
+  <si>
+    <t>連江縣</t>
+  </si>
+  <si>
+    <t>BIH 波士尼亞與赫塞哥維納(波赫) / 波斯尼亞和黑塞哥維那(波黑)</t>
+  </si>
+  <si>
+    <t>集中檢疫所相關工作人員</t>
+  </si>
+  <si>
+    <t>BWA 波札那 / 博茨瓦納</t>
+  </si>
+  <si>
+    <t>防疫車隊相關工作人員</t>
+  </si>
+  <si>
+    <t>BVT 布威島 / 鮑威特島</t>
+  </si>
+  <si>
+    <t>各行業主管及經理人員、民意代表</t>
+  </si>
+  <si>
+    <t>BRA 巴西</t>
+  </si>
+  <si>
+    <t>科學及工程專業人員</t>
+  </si>
+  <si>
+    <t>BLZ 貝里斯 / 伯利茲</t>
+  </si>
+  <si>
+    <t>商業及行政專業人員</t>
+  </si>
+  <si>
+    <t>IOT 英屬印度洋領地</t>
+  </si>
+  <si>
+    <t>資訊及通訊專業人員</t>
+  </si>
+  <si>
+    <t>SLB 索羅門群島 / 所羅門群島</t>
+  </si>
+  <si>
+    <t>法律、社會及文化專業人員</t>
+  </si>
+  <si>
+    <t>VGB 英屬維京群島 / 英屬處女群島</t>
+  </si>
+  <si>
+    <t>辦公室事務支援人員</t>
+  </si>
+  <si>
+    <t>BRN 汶萊(文萊)</t>
+  </si>
+  <si>
+    <t>服務及銷售工作人員</t>
+  </si>
+  <si>
+    <t>BGR 保加利亞</t>
+  </si>
+  <si>
+    <t>技藝工作、機械設備操作及組裝人員</t>
+  </si>
+  <si>
+    <t>MMR 緬甸</t>
+  </si>
+  <si>
+    <t>家管</t>
+  </si>
+  <si>
+    <t>OTH 其他</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>無業</t>
+  </si>
+  <si>
+    <t>不詳</t>
+  </si>
+  <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>居住縣市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鄉鎮市區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>板橋區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自強里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>士林區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百齡里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中壢區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁愛里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>烏日區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光明里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>六甲區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王爺里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美濃區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東門里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅東鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樹林里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹北市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹿場里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>苑裡鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西平里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二林鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>大林村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林內鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林北村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅山鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>竹田鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>二崙村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘭嶼鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅頭村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>富里鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>明里村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬公市</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東文里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安樂區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>三民里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>香山區</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>海山里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>西　區</t>
+  </si>
+  <si>
+    <t>培元里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城鎮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>北門里</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>東引鄉</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂華村</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>魚池鄉</t>
+  </si>
+  <si>
+    <t>大林村</t>
+  </si>
+  <si>
+    <t>前者為TRUE需填寫
+輸入1~3
+1 國內旅遊史
+2 國外旅遊史
+3 國外居住史</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +1676,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,13 +1698,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -804,6 +1710,20 @@
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -854,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -878,9 +1798,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -896,16 +1813,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,6 +1852,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="李長翰" id="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" userId="S::409630398@o365.tku.edu.tw::aeda2b7d-9244-4029-95e7-9abb1c8adcaa" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,6 +2121,46 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z4" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
+    <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BP4" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{A48E627A-52A9-4111-A3B4-40B8EE2A61BC}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
+  </threadedComment>
+  <threadedComment ref="BV4" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{08BAA3F7-94FA-4B47-BB23-90976B0FEED6}">
+    <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
+  </threadedComment>
+  <threadedComment ref="BW4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{A9F14756-6487-4E0B-952A-98DE67F78172}">
+    <text>肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Z4" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{509D78F1-4519-406F-918C-C467C35AE45A}">
+    <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BP4" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{CFDF362C-0131-42CB-B226-6BFC9FC77938}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
+  </threadedComment>
+  <threadedComment ref="BV4" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{24A22BAB-D1F6-4062-B0A1-522293678CEA}">
+    <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
+  </threadedComment>
+  <threadedComment ref="BW4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{E0761CDA-D507-4E8E-A241-83E7C24F47B2}">
+    <text>肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</text>
+  </threadedComment>
+  <threadedComment ref="BY4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{0956DE4B-BE21-4FF3-A892-0FFF7C786459}">
+    <text>肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
@@ -1235,12 +2210,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BX5"/>
+  <dimension ref="A1:BX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV4" sqref="AV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1256,32 +2231,29 @@
     <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.796875" customWidth="1"/>
-    <col min="20" max="20" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.3984375" customWidth="1"/>
+    <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.796875" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.3984375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.3984375" customWidth="1"/>
-    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.09765625" customWidth="1"/>
-    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26" bestFit="1" customWidth="1"/>
-    <col min="39" max="44" width="26" customWidth="1"/>
-    <col min="45" max="46" width="9.59765625" customWidth="1"/>
+    <col min="31" max="31" width="26.3984375" customWidth="1"/>
+    <col min="32" max="32" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.3984375" customWidth="1"/>
+    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="18.09765625" customWidth="1"/>
+    <col min="38" max="38" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26" bestFit="1" customWidth="1"/>
+    <col min="41" max="46" width="26" customWidth="1"/>
     <col min="47" max="47" width="16.09765625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="29.09765625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12.69921875" bestFit="1" customWidth="1"/>
@@ -1310,7 +2282,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="43.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1319,10 +2291,10 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -1355,98 +2327,98 @@
       <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AU1" s="4" t="s">
         <v>51</v>
@@ -1496,16 +2468,16 @@
       <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BK1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BL1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BM1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BN1" s="9" t="s">
         <v>70</v>
       </c>
       <c r="BO1" s="4" t="s">
@@ -1520,19 +2492,19 @@
       <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BS1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BT1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BU1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BV1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="10" t="s">
         <v>79</v>
       </c>
       <c r="BX1" s="4" t="s">
@@ -1542,10 +2514,10 @@
     <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -1560,127 +2532,127 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
       <c r="AU2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BC2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4" t="s">
@@ -1690,298 +2662,298 @@
         <v>83</v>
       </c>
       <c r="BM2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BQ2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="BR2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
       <c r="BU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BV2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="12" t="s">
-        <v>114</v>
+      <c r="BW2" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="BX2" s="4"/>
     </row>
     <row r="3" spans="1:76" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AF3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AL3" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AR3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="BS3" s="11" t="s">
+      <c r="BT3" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="BT3" s="11" t="s">
+      <c r="BU3" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BV3" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="BV3" s="11" t="s">
+      <c r="BW3" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="BW3" s="11" t="s">
+      <c r="BX3" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:76" ht="48.5" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="16"/>
+        <v>189</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="15"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>196</v>
       </c>
       <c r="M4" s="4">
         <v>12345</v>
@@ -1989,110 +2961,108 @@
       <c r="N4" s="4">
         <v>54321</v>
       </c>
-      <c r="O4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="O4" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
         <v>-1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="T4" s="4" t="b">
-        <v>0</v>
       </c>
       <c r="U4" s="4">
         <v>-5</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>-5</v>
+      </c>
+      <c r="X4" s="4">
         <v>-4</v>
       </c>
-      <c r="W4" s="4" t="b">
+      <c r="Y4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>1</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AH4" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AA4" s="4" t="b">
+      <c r="AI4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>-14</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>-12</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO4" s="4">
         <v>1</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AP4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU4" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AC4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AV4" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AW4" s="4" t="s">
         <v>208</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AU4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="AX4" s="4">
         <v>5</v>
@@ -2119,221 +3089,159 @@
         <v>2</v>
       </c>
       <c r="BF4" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="BG4" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="BH4" s="4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="BI4" s="4">
         <v>-10</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BK4" s="4"/>
-      <c r="BL4" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="BM4" s="4" t="b">
-        <v>1</v>
+      <c r="BL4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="BN4" s="4">
         <v>-7</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BP4" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BQ4" s="4" t="b">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="BQ4" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="BR4" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="BS4" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BT4" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="BU4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="BW4" s="13" t="s">
-        <v>220</v>
+        <v>212</v>
+      </c>
+      <c r="BS4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="BT4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BW4" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="BX4" s="4"/>
-    </row>
-    <row r="5" spans="1:76">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="M5" s="4">
-        <v>12345</v>
-      </c>
-      <c r="N5" s="4">
-        <v>54321</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="R5" s="4">
-        <v>-1</v>
-      </c>
-      <c r="S5" s="4">
-        <v>-5</v>
-      </c>
-      <c r="T5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>-5</v>
-      </c>
-      <c r="V5" s="4">
-        <v>-4</v>
-      </c>
-      <c r="W5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA5" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-      <c r="BE5" s="4"/>
-      <c r="BF5" s="4"/>
-      <c r="BG5" s="4"/>
-      <c r="BH5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="BR5" s="4"/>
-      <c r="BS5" s="13"/>
-      <c r="BT5" s="13"/>
-      <c r="BU5" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BV5" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="BW5" s="13"/>
-      <c r="BX5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{E0959B5A-A2D3-47A1-AFFA-49CE3ED3A8AD}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 S4 AC4 AP4 AU4 BL4:BM4 BQ4 BU4 Y4" xr:uid="{B15BE23D-9B66-41F4-A6B7-4D77940DDE5E}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{8605B041-53F0-47C6-9FEC-D374B97E9FE8}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{64A20881-A211-4E6C-B73C-7BA6C5CF1318}">
+      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{7159FDDC-3BCB-49F1-A49B-FBF00512A722}">
+      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4 AD4" xr:uid="{5D9C5C47-0BBC-480B-8EF7-2424F93E005C}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4" xr:uid="{F310C7A6-6456-4364-809E-9AEB57D9D05F}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{89D38661-86DC-48DF-9465-CD37AC3F4C83}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{505D7B10-F61F-4F24-8111-A262E5F9E8AE}">
+      <formula1>INDIRECT(P4)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5403E222-6B7A-44E6-BD00-368E9508ABF1}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE4 BG4 O4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7D74A56-6BF3-431D-A2A8-6533E27ADF41}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{139A4F23-76AA-4D8D-91D2-14405648C55F}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AH4 AK4 AQ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F053CCB0-D376-42A9-9F24-BFC5D6C5A5BF}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AS4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F5CDCFC-E9F5-4AB9-A7CE-9B25EF8A4EEC}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AV4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51BE2FEE-7496-4694-910F-9C1187A0D1BC}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>AW4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6618990F-F6A6-4734-8CC7-7D977FA5E456}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BH4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68A49987-5B7B-458A-ABA0-4F9ECC76735A}">
+          <x14:formula1>
+            <xm:f>清單!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>BR4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BX4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BZ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2341,8 +3249,8 @@
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="43.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:78" ht="43.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2351,10 +3259,10 @@
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="D1" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="6" t="s">
@@ -2387,98 +3295,98 @@
       <c r="O1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AK1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AN1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="AU1" s="4" t="s">
         <v>51</v>
@@ -2528,16 +3436,16 @@
       <c r="BJ1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BK1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="10" t="s">
+      <c r="BL1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BM1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BN1" s="9" t="s">
         <v>70</v>
       </c>
       <c r="BO1" s="4" t="s">
@@ -2552,32 +3460,38 @@
       <c r="BR1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BS1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BT1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BU1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BV1" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BW1" s="10" t="s">
         <v>79</v>
       </c>
       <c r="BX1" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="BY1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
+    <row r="2" spans="1:78" s="2" customFormat="1" ht="43" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -2592,127 +3506,127 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="21"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AF2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AH2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AL2" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AK2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AQ2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
       <c r="AU2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
       <c r="AX2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AY2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="BB2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BC2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BF2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BG2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BH2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="BH2" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="BJ2" s="4"/>
       <c r="BK2" s="4" t="s">
@@ -2722,304 +3636,314 @@
         <v>83</v>
       </c>
       <c r="BM2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="BN2" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="BO2" s="4"/>
       <c r="BP2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BQ2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="BR2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
       <c r="BU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="12" t="s">
+      <c r="BV2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="12" t="s">
+      <c r="BW2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX2" s="4"/>
+      <c r="BY2" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="BZ2" s="4"/>
+    </row>
+    <row r="3" spans="1:78" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="BX2" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="BR3" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="BS3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="BT3" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="BU3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="BV3" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BW3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BY3" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL3" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU3" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF3" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BG3" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH3" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BI3" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BJ3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="BK3" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="BL3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="BM3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="BN3" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BO3" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="BP3" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="BQ3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="BR3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BS3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="BT3" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="BU3" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="BV3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW3" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="BX3" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:76" ht="48.5" customHeight="1">
-      <c r="A4" s="11">
+    <row r="4" spans="1:78" ht="48.5" customHeight="1">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1017</v>
+      <c r="D4" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1114</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="AB4" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AC4" s="15"/>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -3032,12 +3956,12 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
+      <c r="AP4" s="15"/>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
+      <c r="AU4" s="15"/>
       <c r="AV4" s="4"/>
       <c r="AW4" s="4"/>
       <c r="AX4" s="4"/>
@@ -3054,19 +3978,1018 @@
       <c r="BI4" s="4"/>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
       <c r="BN4" s="4"/>
       <c r="BO4" s="4"/>
       <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
+      <c r="BQ4" s="15"/>
       <c r="BR4" s="4"/>
-      <c r="BS4" s="13"/>
-      <c r="BT4" s="13"/>
-      <c r="BU4" s="13"/>
-      <c r="BV4" s="13"/>
-      <c r="BW4" s="13"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="15"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
       <c r="BX4" s="4"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{26E35930-72B9-4CCC-8E43-9FF0AE2C5BC4}">
+      <formula1>"1,2"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4" xr:uid="{97318314-3FB2-4C9F-A63C-F46BBD599AB4}">
+      <formula1>"1,2,3,4,5,6,7,8"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4 AD4" xr:uid="{75A8F620-AB95-463E-8265-7C801AD1BFA4}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{254B1EB4-7C0E-4CC7-B56C-FCE5B23592A9}">
+      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{8FFFC03F-3C16-4FB0-90CA-4C1BE78C497F}">
+      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{B748B534-5DF2-4A41-8601-7585A3BF107B}">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 S4 AC4 AP4 AU4 BL4:BM4 BQ4 BU4 Y4" xr:uid="{A2A84FEF-47A3-414D-ADF2-28C18E19B4E8}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{78211AFB-DE18-4EBE-AC95-73AC7B60E04F}">
+      <formula1>"True,False"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{A5941872-B0D2-471C-8A7E-6F7B754547E6}">
+      <formula1>INDIRECT(O4)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93C775D8-2451-4700-B89C-AFC467021A7E}">
+          <x14:formula1>
+            <xm:f>清單!$F$2:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>BR4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B0140AB-D2AA-48B8-BA8D-E82B40031EAB}">
+          <x14:formula1>
+            <xm:f>清單!$G$5:$G$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>BH4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5BD8234-BD14-4818-80B3-B059E3F7BCF8}">
+          <x14:formula1>
+            <xm:f>清單!$K$2:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>AW4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4141B1D9-BB7A-418A-AA1F-31DB69DF2FA7}">
+          <x14:formula1>
+            <xm:f>清單!$J$2:$J$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>AV4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A04E47E1-23FA-48D6-909C-EAC323ED5DE2}">
+          <x14:formula1>
+            <xm:f>清單!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>AS4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAFBABD4-2C63-48F4-AAF6-0037554B9E13}">
+          <x14:formula1>
+            <xm:f>清單!$E$2:$E$34</xm:f>
+          </x14:formula1>
+          <xm:sqref>AH4 AK4 AQ4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{971A2045-CA42-4C53-B353-871586142352}">
+          <x14:formula1>
+            <xm:f>清單!$A$2:$A$36</xm:f>
+          </x14:formula1>
+          <xm:sqref>AB4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB4E135E-30FF-42B0-ADF4-462322C37591}">
+          <x14:formula1>
+            <xm:f>清單!$B$2:$B$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>AE4 BG4 O4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D601230-0C6C-4799-BE99-6ED3F49DE658}">
+  <dimension ref="A1:R36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="38.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.5">
+      <c r="A1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>233</v>
+      </c>
+      <c r="R1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" t="s">
+        <v>242</v>
+      </c>
+      <c r="L2" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" t="s">
+        <v>244</v>
+      </c>
+      <c r="N2" t="s">
+        <v>245</v>
+      </c>
+      <c r="O2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P2" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>247</v>
+      </c>
+      <c r="R2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M3" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>259</v>
+      </c>
+      <c r="R3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I4" t="s">
+        <v>267</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>269</v>
+      </c>
+      <c r="L4" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" t="s">
+        <v>271</v>
+      </c>
+      <c r="N4" t="s">
+        <v>272</v>
+      </c>
+      <c r="O4" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" t="s">
+        <v>279</v>
+      </c>
+      <c r="I5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K5" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" t="s">
+        <v>283</v>
+      </c>
+      <c r="M5" t="s">
+        <v>284</v>
+      </c>
+      <c r="N5" t="s">
+        <v>285</v>
+      </c>
+      <c r="O5" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>288</v>
+      </c>
+      <c r="R5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>293</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M6" t="s">
+        <v>299</v>
+      </c>
+      <c r="O6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>287</v>
+      </c>
+      <c r="R6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K7" t="s">
+        <v>306</v>
+      </c>
+      <c r="M7" t="s">
+        <v>307</v>
+      </c>
+      <c r="O7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I8" t="s">
+        <v>298</v>
+      </c>
+      <c r="J8" t="s">
+        <v>313</v>
+      </c>
+      <c r="M8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="H9" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" t="s">
+        <v>321</v>
+      </c>
+      <c r="M9" t="s">
+        <v>322</v>
+      </c>
+      <c r="O9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" t="s">
+        <v>328</v>
+      </c>
+      <c r="J10" t="s">
+        <v>329</v>
+      </c>
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="H12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="H13" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="18"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" s="18"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="F34" s="18"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA944858-E090-4F81-A50C-50936165530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D233AE-52E3-4715-9701-549316044FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="190" windowWidth="14400" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="690" windowWidth="9960" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -2214,8 +2214,8 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:BX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV4" sqref="AV4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2512,6 +2512,7 @@
       </c>
     </row>
     <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="17" t="s">
@@ -2677,15 +2678,15 @@
       <c r="BR2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
+      <c r="BS2" s="4"/>
+      <c r="BT2" s="4"/>
       <c r="BU2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BV2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="11" t="s">
+      <c r="BW2" s="4" t="s">
         <v>113</v>
       </c>
       <c r="BX2" s="4"/>
@@ -2974,9 +2975,7 @@
       <c r="S4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="4">
-        <v>-1</v>
-      </c>
+      <c r="T4" s="4"/>
       <c r="U4" s="4">
         <v>-5</v>
       </c>
@@ -3125,26 +3124,26 @@
       <c r="BR4" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="BS4" s="12" t="s">
+      <c r="BS4" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="BT4" s="12" t="s">
+      <c r="BT4" s="10" t="s">
         <v>213</v>
       </c>
       <c r="BU4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="BV4" s="12" t="s">
+      <c r="BV4" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="BW4" s="12" t="s">
+      <c r="BW4" s="10" t="s">
         <v>215</v>
       </c>
       <c r="BX4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{E0959B5A-A2D3-47A1-AFFA-49CE3ED3A8AD}">
       <formula1>"True,False"</formula1>
     </dataValidation>
@@ -3169,11 +3168,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{89D38661-86DC-48DF-9465-CD37AC3F4C83}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
       <formula1>INDIRECT(O4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4" xr:uid="{505D7B10-F61F-4F24-8111-A262E5F9E8AE}">
-      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3240,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BZ4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3941,7 +3937,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AC4" s="15"/>
       <c r="AD4" s="4"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47D233AE-52E3-4715-9701-549316044FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA4B73-6084-432A-84C7-CE61CF80ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="690" windowWidth="9960" windowHeight="9510" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="210" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -88,6 +88,10 @@
     <author>tc={A48E627A-52A9-4111-A3B4-40B8EE2A61BC}</author>
     <author>tc={08BAA3F7-94FA-4B47-BB23-90976B0FEED6}</author>
     <author>tc={A9F14756-6487-4E0B-952A-98DE67F78172}</author>
+    <author>tc={4D8F3A67-3C87-4F5A-8196-40166A922C8D}</author>
+    <author>tc={AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}</author>
+    <author>tc={4D158B2F-0A2A-4E07-8EB4-449A951362BD}</author>
+    <author>tc={5FC18FE2-2127-4CF9-89F0-0C89DC54D149}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
@@ -123,6 +127,39 @@
 中樞神經系統：意識受損,心臟衰竭</t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="4" shapeId="0" xr:uid="{4D8F3A67-3C87-4F5A-8196-40166A922C8D}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BP5" authorId="5" shapeId="0" xr:uid="{AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
+      </text>
+    </comment>
+    <comment ref="BV5" authorId="6" shapeId="0" xr:uid="{4D158B2F-0A2A-4E07-8EB4-449A951362BD}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
+      </text>
+    </comment>
+    <comment ref="BW5" authorId="7" shapeId="0" xr:uid="{5FC18FE2-2127-4CF9-89F0-0C89DC54D149}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -135,6 +172,11 @@
     <author>tc={24A22BAB-D1F6-4062-B0A1-522293678CEA}</author>
     <author>tc={E0761CDA-D507-4E8E-A241-83E7C24F47B2}</author>
     <author>tc={0956DE4B-BE21-4FF3-A892-0FFF7C786459}</author>
+    <author>tc={4E6D4868-D8FD-4E11-A834-0F27B60103A4}</author>
+    <author>tc={7388E158-1C1F-4624-96B0-F5CBA06C4997}</author>
+    <author>tc={F5CB20B1-8C41-4510-87E8-649A719C004D}</author>
+    <author>tc={386CA696-B5D3-4489-B743-615867B6AF21}</author>
+    <author>tc={2D1601D5-127C-4277-98B2-158D3DE85A86}</author>
   </authors>
   <commentList>
     <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{509D78F1-4519-406F-918C-C467C35AE45A}">
@@ -179,12 +221,54 @@
 中樞神經系統：意識受損,心臟衰竭</t>
       </text>
     </comment>
+    <comment ref="Z5" authorId="5" shapeId="0" xr:uid="{4E6D4868-D8FD-4E11-A834-0F27B60103A4}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
+      </text>
+    </comment>
+    <comment ref="BP5" authorId="6" shapeId="0" xr:uid="{7388E158-1C1F-4624-96B0-F5CBA06C4997}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
+      </text>
+    </comment>
+    <comment ref="BV5" authorId="7" shapeId="0" xr:uid="{F5CB20B1-8C41-4510-87E8-649A719C004D}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
+      </text>
+    </comment>
+    <comment ref="BW5" authorId="8" shapeId="0" xr:uid="{386CA696-B5D3-4489-B743-615867B6AF21}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</t>
+      </text>
+    </comment>
+    <comment ref="BY5" authorId="9" shapeId="0" xr:uid="{2D1601D5-127C-4277-98B2-158D3DE85A86}">
+      <text>
+        <t>[對話串註解]
+您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
+註解:
+    肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="485">
   <si>
     <t>User</t>
   </si>
@@ -813,9 +897,6 @@
     <t>測試姓名</t>
   </si>
   <si>
-    <t>民國76/06/02</t>
-  </si>
-  <si>
     <t>屏東縣</t>
   </si>
   <si>
@@ -829,12 +910,6 @@
   </si>
   <si>
     <t>台中市</t>
-  </si>
-  <si>
-    <t>USA 美國</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>OTH 其他</t>
@@ -1656,12 +1731,6 @@
   <si>
     <t>樂華村</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>魚池鄉</t>
-  </si>
-  <si>
-    <t>大林村</t>
   </si>
   <si>
     <t>前者為TRUE需填寫
@@ -1671,11 +1740,145 @@
 3 國外居住史</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>黃色: 必填項目
+橙色: 由衛生局審核項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國80/03/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>民國66/06/02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬公市</t>
+  </si>
+  <si>
+    <t>東文里</t>
+  </si>
+  <si>
+    <t>香山區</t>
+  </si>
+  <si>
+    <t>海山里</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>請填寫1~5/不填寫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改必填</t>
+  </si>
+  <si>
+    <t>修改衛生局審核</t>
+  </si>
+  <si>
+    <t>美濃區</t>
+  </si>
+  <si>
+    <t>東門里</t>
+  </si>
+  <si>
+    <t>疾病名稱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嚴重特殊傳染性肺炎(併發症)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米巴性痢疾</t>
+  </si>
+  <si>
+    <t>010</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>19CVS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>結核病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>044</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案)</t>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅毒</t>
+  </si>
+  <si>
+    <t>090</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>淋病</t>
+  </si>
+  <si>
+    <t>098</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鉤端螺旋體病</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠疫</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>退伍軍人病</t>
+  </si>
+  <si>
+    <t>4828</t>
+  </si>
+  <si>
+    <t>霍亂</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1727,7 +1930,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,6 +1946,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,7 +1983,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1783,46 +1992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1836,6 +2006,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2136,6 +2354,19 @@
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4D8F3A67-3C87-4F5A-8196-40166A922C8D}">
+    <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BP5" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
+  </threadedComment>
+  <threadedComment ref="BV5" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4D158B2F-0A2A-4E07-8EB4-449A951362BD}">
+    <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
+  </threadedComment>
+  <threadedComment ref="BW5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{5FC18FE2-2127-4CF9-89F0-0C89DC54D149}">
+    <text>肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2158,6 +2389,23 @@
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
+  <threadedComment ref="Z5" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4E6D4868-D8FD-4E11-A834-0F27B60103A4}">
+    <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
+  </threadedComment>
+  <threadedComment ref="BP5" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{7388E158-1C1F-4624-96B0-F5CBA06C4997}">
+    <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
+  </threadedComment>
+  <threadedComment ref="BV5" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{F5CB20B1-8C41-4510-87E8-649A719C004D}">
+    <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
+  </threadedComment>
+  <threadedComment ref="BW5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{386CA696-B5D3-4489-B743-615867B6AF21}">
+    <text>肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</text>
+  </threadedComment>
+  <threadedComment ref="BY5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{2D1601D5-127C-4277-98B2-158D3DE85A86}">
+    <text>肝臟(GOT或GPT&gt;=1000 IU/L),
+中樞神經系統：意識受損,心臟衰竭</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -2212,10 +2460,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BX4"/>
+  <dimension ref="A1:BX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2282,893 +2530,1001 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" ht="43.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BS1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BT1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BU1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BV1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BW1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="4" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4" t="s">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4" t="s">
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4" t="s">
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4" t="s">
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="4"/>
-      <c r="BT2" s="4"/>
-      <c r="BU2" s="4" t="s">
+      <c r="BS2" s="8"/>
+      <c r="BT2" s="8"/>
+      <c r="BU2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="4" t="s">
+      <c r="BV2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="4" t="s">
+      <c r="BW2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="BX2" s="4"/>
+      <c r="BX2" s="8"/>
     </row>
     <row r="3" spans="1:76" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BS3" s="10" t="s">
+      <c r="BS3" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="BT3" s="10" t="s">
+      <c r="BT3" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="BU3" s="10" t="s">
+      <c r="BU3" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BV3" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="BW3" s="10" t="s">
+      <c r="BW3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BX3" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:76" ht="48.5" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="4">
+      <c r="D4" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="M4" s="8">
+        <v>12345</v>
+      </c>
+      <c r="N4" s="8">
+        <v>54321</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="8">
+        <v>-5</v>
+      </c>
+      <c r="U4" s="8">
+        <v>-30</v>
+      </c>
+      <c r="V4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W4" s="8">
+        <v>-25</v>
+      </c>
+      <c r="X4" s="8">
+        <v>-25</v>
+      </c>
+      <c r="Y4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="M4" s="4">
+      <c r="AF4" s="8">
+        <v>-40</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>-35</v>
+      </c>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT4" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AU4" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>5</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BA4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BB4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BC4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BD4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BE4" s="8">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG4" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BH4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BI4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BJ4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="8">
+        <v>-7</v>
+      </c>
+      <c r="BO4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP4" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="BQ4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="BS4" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT4" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW4" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="BX4" s="8"/>
+    </row>
+    <row r="5" spans="1:76" ht="48.5" customHeight="1">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="M5" s="8">
         <v>12345</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N5" s="8">
         <v>54321</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="P4" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="15" t="b">
+      <c r="O5" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="V4" s="15" t="b">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="8">
+        <v>-20</v>
+      </c>
+      <c r="X5" s="8">
+        <v>-20</v>
+      </c>
+      <c r="Y5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="4">
-        <v>-5</v>
-      </c>
-      <c r="X4" s="4">
-        <v>-4</v>
-      </c>
-      <c r="Y4" s="15" t="b">
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>-14</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>-12</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>5</v>
-      </c>
-      <c r="AY4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="AZ4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BA4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BB4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BC4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BD4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BE4" s="4">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BG4" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="BH4" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="BJ4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="4">
-        <v>-7</v>
-      </c>
-      <c r="BO4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="BP4" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BQ4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BS4" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BT4" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="BU4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="BW4" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="BX4" s="4"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="16"/>
+      <c r="BT5" s="16"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="16"/>
+      <c r="BW5" s="16"/>
+      <c r="BX5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{E0959B5A-A2D3-47A1-AFFA-49CE3ED3A8AD}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{E0959B5A-A2D3-47A1-AFFA-49CE3ED3A8AD}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 S4 AC4 AP4 AU4 BL4:BM4 BQ4 BU4 Y4" xr:uid="{B15BE23D-9B66-41F4-A6B7-4D77940DDE5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V5 S4:S5 AC4:AC5 AP4:AP5 AU4:AU5 BL4:BM5 BQ4:BQ5 BU4:BU5 Y4:Y5" xr:uid="{B15BE23D-9B66-41F4-A6B7-4D77940DDE5E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{8605B041-53F0-47C6-9FEC-D374B97E9FE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{8605B041-53F0-47C6-9FEC-D374B97E9FE8}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{64A20881-A211-4E6C-B73C-7BA6C5CF1318}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{7159FDDC-3BCB-49F1-A49B-FBF00512A722}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4 AD4" xr:uid="{5D9C5C47-0BBC-480B-8EF7-2424F93E005C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4:AO5 AD4:AD5" xr:uid="{5D9C5C47-0BBC-480B-8EF7-2424F93E005C}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4" xr:uid="{F310C7A6-6456-4364-809E-9AEB57D9D05F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4:AX5" xr:uid="{F310C7A6-6456-4364-809E-9AEB57D9D05F}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{89D38661-86DC-48DF-9465-CD37AC3F4C83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{89D38661-86DC-48DF-9465-CD37AC3F4C83}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -3177,54 +3533,66 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5403E222-6B7A-44E6-BD00-368E9508ABF1}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AE4 BG4 O4</xm:sqref>
+          <xm:sqref>AE4:AE5 BG4:BG5 O4:O5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7D74A56-6BF3-431D-A2A8-6533E27ADF41}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4</xm:sqref>
+          <xm:sqref>AB4:AB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{139A4F23-76AA-4D8D-91D2-14405648C55F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AH4 AK4 AQ4</xm:sqref>
+          <xm:sqref>AH4:AH5 AK4:AK5 AQ4:AQ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F053CCB0-D376-42A9-9F24-BFC5D6C5A5BF}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AS4</xm:sqref>
+          <xm:sqref>AS4:AS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F5CDCFC-E9F5-4AB9-A7CE-9B25EF8A4EEC}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4</xm:sqref>
+          <xm:sqref>AV4:AV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51BE2FEE-7496-4694-910F-9C1187A0D1BC}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4</xm:sqref>
+          <xm:sqref>AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6618990F-F6A6-4734-8CC7-7D977FA5E456}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4</xm:sqref>
+          <xm:sqref>BH4:BH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68A49987-5B7B-458A-ABA0-4F9ECC76735A}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BR4</xm:sqref>
+          <xm:sqref>BR4:BR5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B722554-733D-4A71-A570-1AB09415249C}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99E8BF95-BEE7-4BCD-8F06-A23FDA1AC3A2}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3234,790 +3602,906 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BZ4"/>
+  <dimension ref="A1:BZ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:78" ht="43.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="D1" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="9" t="s">
         <v>20</v>
       </c>
       <c r="Q1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BK1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BL1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BM1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="9" t="s">
+      <c r="BN1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BS1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BT1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BU1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BV1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="10" t="s">
+      <c r="BW1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="10" t="s">
+      <c r="BY1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:78" s="2" customFormat="1" ht="43" customHeight="1">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AD2" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE2" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AG2" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AH2" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AI2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AK2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" s="4" t="s">
+      <c r="AL2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4" t="s">
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AP2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AR2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4" t="s">
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AU2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4" t="s">
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BA2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BB2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BC2" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BD2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="4" t="s">
+      <c r="BE2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="4" t="s">
+      <c r="BF2" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="BG2" s="4" t="s">
+      <c r="BG2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BH2" s="4" t="s">
+      <c r="BH2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="BI2" s="4" t="s">
+      <c r="BI2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4" t="s">
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" s="4" t="s">
+      <c r="BL2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BM2" s="4" t="s">
+      <c r="BM2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4" t="s">
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BQ2" s="4" t="s">
+      <c r="BQ2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BR2" s="4" t="s">
+      <c r="BR2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="4" t="s">
+      <c r="BS2" s="20"/>
+      <c r="BT2" s="20"/>
+      <c r="BU2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="11" t="s">
+      <c r="BV2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="11" t="s">
+      <c r="BW2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="BX2" s="4"/>
-      <c r="BY2" s="11" t="s">
+      <c r="BX2" s="8"/>
+      <c r="BY2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="BZ2" s="4"/>
+      <c r="BZ2" s="8"/>
     </row>
     <row r="3" spans="1:78" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="T3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AB3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AC3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AE3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AF3" s="4" t="s">
+      <c r="AF3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AG3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AH3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AI3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AK3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="4" t="s">
+      <c r="AL3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AM3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AN3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AO3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AP3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AR3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AS3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AT3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AU3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AW3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AX3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AY3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BB3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BC3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BD3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BE3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BF3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BG3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BH3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BI3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BK3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BL3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BM3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BN3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BO3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BP3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BR3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BS3" s="10" t="s">
+      <c r="BS3" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="BT3" s="10" t="s">
+      <c r="BT3" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="BU3" s="10" t="s">
+      <c r="BU3" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BV3" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="BW3" s="10" t="s">
+      <c r="BW3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BX3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="BY3" s="10" t="s">
+      <c r="BY3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="BZ3" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:78" ht="48.5" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1114</v>
-      </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="15"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-      <c r="BE4" s="4"/>
-      <c r="BF4" s="4"/>
-      <c r="BG4" s="4"/>
-      <c r="BH4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="15"/>
-      <c r="BM4" s="15"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="15"/>
-      <c r="BR4" s="4"/>
-      <c r="BS4" s="12"/>
-      <c r="BT4" s="12"/>
-      <c r="BU4" s="15"/>
-      <c r="BV4" s="12"/>
-      <c r="BW4" s="12"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="12"/>
-      <c r="BZ4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="22">
+        <v>45306</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="8"/>
+      <c r="BS4" s="23"/>
+      <c r="BT4" s="23"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="23"/>
+      <c r="BW4" s="23"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="23"/>
+      <c r="BZ4" s="8"/>
+    </row>
+    <row r="5" spans="1:78" ht="48.5" customHeight="1">
+      <c r="A5" s="16">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="E5" s="22">
+        <v>45306</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC5" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI5" s="8">
+        <v>-50</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>-50</v>
+      </c>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="8"/>
+      <c r="AS5" s="8"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="8"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="8"/>
+      <c r="AY5" s="8"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="8"/>
+      <c r="BB5" s="8"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="8"/>
+      <c r="BE5" s="8"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="8"/>
+      <c r="BH5" s="8"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="8"/>
+      <c r="BK5" s="8"/>
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19"/>
+      <c r="BN5" s="8"/>
+      <c r="BO5" s="8"/>
+      <c r="BP5" s="8"/>
+      <c r="BQ5" s="19"/>
+      <c r="BR5" s="8"/>
+      <c r="BS5" s="23"/>
+      <c r="BT5" s="23"/>
+      <c r="BU5" s="19"/>
+      <c r="BV5" s="23"/>
+      <c r="BW5" s="23"/>
+      <c r="BX5" s="8"/>
+      <c r="BY5" s="23"/>
+      <c r="BZ5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4" xr:uid="{26E35930-72B9-4CCC-8E43-9FF0AE2C5BC4}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{26E35930-72B9-4CCC-8E43-9FF0AE2C5BC4}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4" xr:uid="{97318314-3FB2-4C9F-A63C-F46BBD599AB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4:AX5" xr:uid="{97318314-3FB2-4C9F-A63C-F46BBD599AB4}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4 AD4" xr:uid="{75A8F620-AB95-463E-8265-7C801AD1BFA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4:AO5 AD4:AD5" xr:uid="{75A8F620-AB95-463E-8265-7C801AD1BFA4}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4" xr:uid="{254B1EB4-7C0E-4CC7-B56C-FCE5B23592A9}">
-      <formula1>"嚴重特殊傳染性肺炎(併發症),阿米巴性痢疾,登革熱,結核病,人類免疫缺乏病毒感染(含母子垂直感染及孕產婦疑似個案),梅毒,淋病,鉤端螺旋體病,"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4" xr:uid="{8FFFC03F-3C16-4FB0-90CA-4C1BE78C497F}">
-      <formula1>"006,010,19CVS,044,061,090,098,100"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{B748B534-5DF2-4A41-8601-7585A3BF107B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{B748B534-5DF2-4A41-8601-7585A3BF107B}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4 S4 AC4 AP4 AU4 BL4:BM4 BQ4 BU4 Y4" xr:uid="{A2A84FEF-47A3-414D-ADF2-28C18E19B4E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V5 S4:S5 AC4:AC5 AP4:AP5 AU4:AU5 BL4:BM5 BQ4:BQ5 BU4:BU5 Y4:Y5" xr:uid="{A2A84FEF-47A3-414D-ADF2-28C18E19B4E8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{78211AFB-DE18-4EBE-AC95-73AC7B60E04F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{78211AFB-DE18-4EBE-AC95-73AC7B60E04F}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q4" xr:uid="{A5941872-B0D2-471C-8A7E-6F7B754547E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{A5941872-B0D2-471C-8A7E-6F7B754547E6}">
       <formula1>INDIRECT(O4)</formula1>
     </dataValidation>
   </dataValidations>
@@ -4025,54 +4509,66 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93C775D8-2451-4700-B89C-AFC467021A7E}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BR4</xm:sqref>
+          <xm:sqref>BR4:BR5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B0140AB-D2AA-48B8-BA8D-E82B40031EAB}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4</xm:sqref>
+          <xm:sqref>BH4:BH5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5BD8234-BD14-4818-80B3-B059E3F7BCF8}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4</xm:sqref>
+          <xm:sqref>AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4141B1D9-BB7A-418A-AA1F-31DB69DF2FA7}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4</xm:sqref>
+          <xm:sqref>AV4:AV5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A04E47E1-23FA-48D6-909C-EAC323ED5DE2}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AS4</xm:sqref>
+          <xm:sqref>AS4:AS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAFBABD4-2C63-48F4-AAF6-0037554B9E13}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AH4 AK4 AQ4</xm:sqref>
+          <xm:sqref>AH4:AH5 AK4:AK5 AQ4:AQ5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{971A2045-CA42-4C53-B353-871586142352}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4</xm:sqref>
+          <xm:sqref>AB4:AB5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB4E135E-30FF-42B0-ADF4-462322C37591}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AE4 BG4 O4</xm:sqref>
+          <xm:sqref>AE4:AE5 BG4:BG5 O4:O5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3701EA99-CC4E-453D-80FE-5472F19D86E5}">
+          <x14:formula1>
+            <xm:f>清單!$T$2:$T$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4:G5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A89652DE-4633-4C80-A2E6-77B20BCF67F3}">
+          <x14:formula1>
+            <xm:f>清單!$S$2:$S$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4082,10 +4578,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D601230-0C6C-4799-BE99-6ED3F49DE658}">
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4104,888 +4600,962 @@
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="34.5" customWidth="1"/>
+    <col min="20" max="20" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.5">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:20" ht="15.5">
+      <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" t="s">
+        <v>226</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
+        <v>228</v>
+      </c>
+      <c r="P1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>230</v>
+      </c>
+      <c r="R1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S1" t="s">
+        <v>463</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E2" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I2" t="s">
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" t="s">
+        <v>240</v>
+      </c>
+      <c r="M2" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" t="s">
+        <v>242</v>
+      </c>
+      <c r="O2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P2" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>244</v>
+      </c>
+      <c r="R2" t="s">
+        <v>245</v>
+      </c>
+      <c r="S2" t="s">
+        <v>465</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="M1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O1" t="s">
-        <v>231</v>
-      </c>
-      <c r="P1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R1" t="s">
-        <v>234</v>
+      <c r="D3" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+      <c r="L3" t="s">
+        <v>252</v>
+      </c>
+      <c r="M3" t="s">
+        <v>253</v>
+      </c>
+      <c r="N3" t="s">
+        <v>254</v>
+      </c>
+      <c r="O3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>256</v>
+      </c>
+      <c r="R3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S3" t="s">
+        <v>467</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="18" t="s">
+    <row r="4" spans="1:20">
+      <c r="A4" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I2" t="s">
-        <v>240</v>
-      </c>
-      <c r="J2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L2" t="s">
-        <v>243</v>
-      </c>
-      <c r="M2" t="s">
-        <v>244</v>
-      </c>
-      <c r="N2" t="s">
-        <v>245</v>
-      </c>
-      <c r="O2" t="s">
-        <v>246</v>
-      </c>
-      <c r="P2" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>247</v>
-      </c>
-      <c r="R2" t="s">
-        <v>248</v>
+      <c r="D4" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J4" t="s">
+        <v>265</v>
+      </c>
+      <c r="K4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L4" t="s">
+        <v>267</v>
+      </c>
+      <c r="M4" t="s">
+        <v>268</v>
+      </c>
+      <c r="N4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P4" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>254</v>
+      </c>
+      <c r="R4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="18" t="s">
+    <row r="5" spans="1:20">
+      <c r="A5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="18" t="s">
+      <c r="C5" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D5" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" t="s">
+        <v>277</v>
+      </c>
+      <c r="J5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K5" t="s">
+        <v>279</v>
+      </c>
+      <c r="L5" t="s">
+        <v>280</v>
+      </c>
+      <c r="M5" t="s">
+        <v>281</v>
+      </c>
+      <c r="N5" t="s">
+        <v>282</v>
+      </c>
+      <c r="O5" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>285</v>
+      </c>
+      <c r="R5" t="s">
+        <v>286</v>
+      </c>
+      <c r="S5" t="s">
+        <v>470</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="H6" t="s">
+        <v>292</v>
+      </c>
+      <c r="I6" t="s">
+        <v>293</v>
+      </c>
+      <c r="J6" t="s">
+        <v>294</v>
+      </c>
+      <c r="K6" t="s">
+        <v>295</v>
+      </c>
+      <c r="M6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O6" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>284</v>
+      </c>
+      <c r="R6" t="s">
+        <v>202</v>
+      </c>
+      <c r="S6" t="s">
+        <v>472</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M7" t="s">
+        <v>304</v>
+      </c>
+      <c r="O7" t="s">
         <v>254</v>
       </c>
-      <c r="J3" t="s">
-        <v>207</v>
-      </c>
-      <c r="K3" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" t="s">
-        <v>255</v>
-      </c>
-      <c r="M3" t="s">
-        <v>256</v>
-      </c>
-      <c r="N3" t="s">
-        <v>257</v>
-      </c>
-      <c r="O3" t="s">
-        <v>258</v>
-      </c>
-      <c r="P3" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>259</v>
-      </c>
-      <c r="R3" t="s">
-        <v>260</v>
+      <c r="Q7" t="s">
+        <v>202</v>
+      </c>
+      <c r="S7" t="s">
+        <v>474</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>410</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="H4" t="s">
-        <v>266</v>
-      </c>
-      <c r="I4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J4" t="s">
-        <v>268</v>
-      </c>
-      <c r="K4" t="s">
-        <v>269</v>
-      </c>
-      <c r="L4" t="s">
-        <v>270</v>
-      </c>
-      <c r="M4" t="s">
-        <v>271</v>
-      </c>
-      <c r="N4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O4" t="s">
-        <v>273</v>
-      </c>
-      <c r="P4" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>257</v>
-      </c>
-      <c r="R4" t="s">
-        <v>274</v>
+    <row r="8" spans="1:20">
+      <c r="A8" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I8" t="s">
+        <v>295</v>
+      </c>
+      <c r="J8" t="s">
+        <v>310</v>
+      </c>
+      <c r="M8" t="s">
+        <v>311</v>
+      </c>
+      <c r="O8" t="s">
+        <v>312</v>
+      </c>
+      <c r="S8" t="s">
+        <v>476</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>413</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="H5" t="s">
-        <v>279</v>
-      </c>
-      <c r="I5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" t="s">
-        <v>283</v>
-      </c>
-      <c r="M5" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" t="s">
-        <v>285</v>
-      </c>
-      <c r="O5" t="s">
-        <v>286</v>
-      </c>
-      <c r="P5" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>288</v>
-      </c>
-      <c r="R5" t="s">
-        <v>289</v>
+    <row r="9" spans="1:20">
+      <c r="A9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" t="s">
+        <v>317</v>
+      </c>
+      <c r="J9" t="s">
+        <v>318</v>
+      </c>
+      <c r="M9" t="s">
+        <v>319</v>
+      </c>
+      <c r="O9" t="s">
+        <v>320</v>
+      </c>
+      <c r="S9" t="s">
+        <v>478</v>
+      </c>
+      <c r="T9" s="1">
+        <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="H6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K6" t="s">
-        <v>298</v>
-      </c>
-      <c r="M6" t="s">
-        <v>299</v>
-      </c>
-      <c r="O6" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>287</v>
-      </c>
-      <c r="R6" t="s">
-        <v>205</v>
+    <row r="10" spans="1:20">
+      <c r="A10" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" t="s">
+        <v>325</v>
+      </c>
+      <c r="J10" t="s">
+        <v>326</v>
+      </c>
+      <c r="M10" t="s">
+        <v>202</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H7" t="s">
-        <v>304</v>
-      </c>
-      <c r="I7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M7" t="s">
-        <v>307</v>
-      </c>
-      <c r="O7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>205</v>
+    <row r="11" spans="1:20">
+      <c r="A11" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" t="s">
+        <v>331</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>482</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="18" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>419</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>310</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" t="s">
-        <v>312</v>
-      </c>
-      <c r="I8" t="s">
-        <v>298</v>
-      </c>
-      <c r="J8" t="s">
-        <v>313</v>
-      </c>
-      <c r="M8" t="s">
-        <v>314</v>
-      </c>
-      <c r="O8" t="s">
-        <v>315</v>
+    <row r="12" spans="1:20">
+      <c r="A12" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H12" t="s">
+        <v>336</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="H9" t="s">
-        <v>320</v>
-      </c>
-      <c r="J9" t="s">
-        <v>321</v>
-      </c>
-      <c r="M9" t="s">
-        <v>322</v>
-      </c>
-      <c r="O9" t="s">
-        <v>323</v>
+    <row r="13" spans="1:20">
+      <c r="A13" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H13" t="s">
+        <v>341</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="H10" t="s">
-        <v>328</v>
-      </c>
-      <c r="J10" t="s">
-        <v>329</v>
-      </c>
-      <c r="M10" t="s">
-        <v>205</v>
+    <row r="14" spans="1:20">
+      <c r="A14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" t="s">
-        <v>334</v>
+    <row r="15" spans="1:20">
+      <c r="A15" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>349</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="H12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="H13" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="D14" s="18" t="s">
+    <row r="16" spans="1:20">
+      <c r="A16" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="H14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="D16" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="E16" s="5" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="18" t="s">
+      <c r="F16" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>357</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>361</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>441</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="F19" s="18"/>
+      <c r="A19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="A20" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>444</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="F21" s="18"/>
+      <c r="A21" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="F22" s="18"/>
+      <c r="A22" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F23" s="18"/>
+      <c r="A23" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="F24" s="18"/>
+      <c r="A24" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="18"/>
+      <c r="A25" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="F26" s="18"/>
+      <c r="A26" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="A27" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="18" t="s">
-        <v>387</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28" s="18"/>
+      <c r="A28" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="18"/>
+      <c r="A29" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="18" t="s">
-        <v>391</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="F30" s="18"/>
+      <c r="A30" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="F31" s="18"/>
+      <c r="A31" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="F32" s="18"/>
+      <c r="A32" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="F33" s="18"/>
+      <c r="A33" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33" s="5"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="F34" s="18"/>
+      <c r="A34" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F34" s="5"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="18" t="s">
-        <v>402</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
+++ b/testdata/Smoke_WEB_MED_061_NEWREPORT_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docker0814\test_RobotFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECA4B73-6084-432A-84C7-CE61CF80ECD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999DB6DA-7755-4F11-AF51-F5F000CFDA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="210" windowWidth="13890" windowHeight="9620" tabRatio="603" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="420" yWindow="260" windowWidth="14480" windowHeight="9940" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <author>tc={5FC18FE2-2127-4CF9-89F0-0C89DC54D149}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -102,7 +102,7 @@
     出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BP4" authorId="1" shapeId="0" xr:uid="{A48E627A-52A9-4111-A3B4-40B8EE2A61BC}">
+    <comment ref="BQ4" authorId="1" shapeId="0" xr:uid="{A48E627A-52A9-4111-A3B4-40B8EE2A61BC}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -110,7 +110,7 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
       </text>
     </comment>
-    <comment ref="BV4" authorId="2" shapeId="0" xr:uid="{08BAA3F7-94FA-4B47-BB23-90976B0FEED6}">
+    <comment ref="BW4" authorId="2" shapeId="0" xr:uid="{08BAA3F7-94FA-4B47-BB23-90976B0FEED6}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -118,7 +118,7 @@
     嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
       </text>
     </comment>
-    <comment ref="BW4" authorId="3" shapeId="0" xr:uid="{A9F14756-6487-4E0B-952A-98DE67F78172}">
+    <comment ref="BX4" authorId="3" shapeId="0" xr:uid="{A9F14756-6487-4E0B-952A-98DE67F78172}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -127,7 +127,7 @@
 中樞神經系統：意識受損,心臟衰竭</t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="4" shapeId="0" xr:uid="{4D8F3A67-3C87-4F5A-8196-40166A922C8D}">
+    <comment ref="AA5" authorId="4" shapeId="0" xr:uid="{4D8F3A67-3C87-4F5A-8196-40166A922C8D}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -135,7 +135,7 @@
     出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BP5" authorId="5" shapeId="0" xr:uid="{AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}">
+    <comment ref="BQ5" authorId="5" shapeId="0" xr:uid="{AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -143,7 +143,7 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
       </text>
     </comment>
-    <comment ref="BV5" authorId="6" shapeId="0" xr:uid="{4D158B2F-0A2A-4E07-8EB4-449A951362BD}">
+    <comment ref="BW5" authorId="6" shapeId="0" xr:uid="{4D158B2F-0A2A-4E07-8EB4-449A951362BD}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -151,7 +151,7 @@
     嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
       </text>
     </comment>
-    <comment ref="BW5" authorId="7" shapeId="0" xr:uid="{5FC18FE2-2127-4CF9-89F0-0C89DC54D149}">
+    <comment ref="BX5" authorId="7" shapeId="0" xr:uid="{5FC18FE2-2127-4CF9-89F0-0C89DC54D149}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -179,7 +179,7 @@
     <author>tc={2D1601D5-127C-4277-98B2-158D3DE85A86}</author>
   </authors>
   <commentList>
-    <comment ref="Z4" authorId="0" shapeId="0" xr:uid="{509D78F1-4519-406F-918C-C467C35AE45A}">
+    <comment ref="AA4" authorId="0" shapeId="0" xr:uid="{509D78F1-4519-406F-918C-C467C35AE45A}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -187,7 +187,7 @@
     出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BP4" authorId="1" shapeId="0" xr:uid="{CFDF362C-0131-42CB-B226-6BFC9FC77938}">
+    <comment ref="BQ4" authorId="1" shapeId="0" xr:uid="{CFDF362C-0131-42CB-B226-6BFC9FC77938}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -195,7 +195,7 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
       </text>
     </comment>
-    <comment ref="BV4" authorId="2" shapeId="0" xr:uid="{24A22BAB-D1F6-4062-B0A1-522293678CEA}">
+    <comment ref="BW4" authorId="2" shapeId="0" xr:uid="{24A22BAB-D1F6-4062-B0A1-522293678CEA}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -203,7 +203,7 @@
     嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
       </text>
     </comment>
-    <comment ref="BW4" authorId="3" shapeId="0" xr:uid="{E0761CDA-D507-4E8E-A241-83E7C24F47B2}">
+    <comment ref="BX4" authorId="3" shapeId="0" xr:uid="{E0761CDA-D507-4E8E-A241-83E7C24F47B2}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -212,7 +212,7 @@
 中樞神經系統：意識受損,心臟衰竭</t>
       </text>
     </comment>
-    <comment ref="BY4" authorId="4" shapeId="0" xr:uid="{0956DE4B-BE21-4FF3-A892-0FFF7C786459}">
+    <comment ref="BZ4" authorId="4" shapeId="0" xr:uid="{0956DE4B-BE21-4FF3-A892-0FFF7C786459}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -221,7 +221,7 @@
 中樞神經系統：意識受損,心臟衰竭</t>
       </text>
     </comment>
-    <comment ref="Z5" authorId="5" shapeId="0" xr:uid="{4E6D4868-D8FD-4E11-A834-0F27B60103A4}">
+    <comment ref="AA5" authorId="5" shapeId="0" xr:uid="{4E6D4868-D8FD-4E11-A834-0F27B60103A4}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -229,7 +229,7 @@
     出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</t>
       </text>
     </comment>
-    <comment ref="BP5" authorId="6" shapeId="0" xr:uid="{7388E158-1C1F-4624-96B0-F5CBA06C4997}">
+    <comment ref="BQ5" authorId="6" shapeId="0" xr:uid="{7388E158-1C1F-4624-96B0-F5CBA06C4997}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -237,7 +237,7 @@
     與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</t>
       </text>
     </comment>
-    <comment ref="BV5" authorId="7" shapeId="0" xr:uid="{F5CB20B1-8C41-4510-87E8-649A719C004D}">
+    <comment ref="BW5" authorId="7" shapeId="0" xr:uid="{F5CB20B1-8C41-4510-87E8-649A719C004D}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -245,7 +245,7 @@
     嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</t>
       </text>
     </comment>
-    <comment ref="BW5" authorId="8" shapeId="0" xr:uid="{386CA696-B5D3-4489-B743-615867B6AF21}">
+    <comment ref="BX5" authorId="8" shapeId="0" xr:uid="{386CA696-B5D3-4489-B743-615867B6AF21}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -254,7 +254,7 @@
 中樞神經系統：意識受損,心臟衰竭</t>
       </text>
     </comment>
-    <comment ref="BY5" authorId="9" shapeId="0" xr:uid="{2D1601D5-127C-4277-98B2-158D3DE85A86}">
+    <comment ref="BZ5" authorId="9" shapeId="0" xr:uid="{2D1601D5-127C-4277-98B2-158D3DE85A86}">
       <text>
         <t>[對話串註解]
 您的 Excel 版本可讓您讀取此對話串註解; 但若以較新的 Excel 版本開啟此檔案，將會移除對它進行的所有編輯。深入了解: https://go.microsoft.com/fwlink/?linkid=870924。
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="487">
   <si>
     <t>User</t>
   </si>
@@ -1870,6 +1870,14 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1983,7 +1991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2054,6 +2062,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2341,29 +2352,29 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
+  <threadedComment ref="AA4" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{8ADBC288-CE2E-4A5C-9D81-6F08492C863D}">
     <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BP4" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{A48E627A-52A9-4111-A3B4-40B8EE2A61BC}">
+  <threadedComment ref="BQ4" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{A48E627A-52A9-4111-A3B4-40B8EE2A61BC}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
   </threadedComment>
-  <threadedComment ref="BV4" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{08BAA3F7-94FA-4B47-BB23-90976B0FEED6}">
+  <threadedComment ref="BW4" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{08BAA3F7-94FA-4B47-BB23-90976B0FEED6}">
     <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
   </threadedComment>
-  <threadedComment ref="BW4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{A9F14756-6487-4E0B-952A-98DE67F78172}">
+  <threadedComment ref="BX4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{A9F14756-6487-4E0B-952A-98DE67F78172}">
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4D8F3A67-3C87-4F5A-8196-40166A922C8D}">
+  <threadedComment ref="AA5" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4D8F3A67-3C87-4F5A-8196-40166A922C8D}">
     <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BP5" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}">
+  <threadedComment ref="BQ5" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{AFD4965B-4BB4-4EED-97A7-0C549C8AD8F1}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
   </threadedComment>
-  <threadedComment ref="BV5" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4D158B2F-0A2A-4E07-8EB4-449A951362BD}">
+  <threadedComment ref="BW5" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4D158B2F-0A2A-4E07-8EB4-449A951362BD}">
     <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
   </threadedComment>
-  <threadedComment ref="BW5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{5FC18FE2-2127-4CF9-89F0-0C89DC54D149}">
+  <threadedComment ref="BX5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{5FC18FE2-2127-4CF9-89F0-0C89DC54D149}">
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
@@ -2372,37 +2383,37 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Z4" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{509D78F1-4519-406F-918C-C467C35AE45A}">
+  <threadedComment ref="AA4" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{509D78F1-4519-406F-918C-C467C35AE45A}">
     <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BP4" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{CFDF362C-0131-42CB-B226-6BFC9FC77938}">
+  <threadedComment ref="BQ4" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{CFDF362C-0131-42CB-B226-6BFC9FC77938}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
   </threadedComment>
-  <threadedComment ref="BV4" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{24A22BAB-D1F6-4062-B0A1-522293678CEA}">
+  <threadedComment ref="BW4" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{24A22BAB-D1F6-4062-B0A1-522293678CEA}">
     <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
   </threadedComment>
-  <threadedComment ref="BW4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{E0761CDA-D507-4E8E-A241-83E7C24F47B2}">
+  <threadedComment ref="BX4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{E0761CDA-D507-4E8E-A241-83E7C24F47B2}">
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
-  <threadedComment ref="BY4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{0956DE4B-BE21-4FF3-A892-0FFF7C786459}">
+  <threadedComment ref="BZ4" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{0956DE4B-BE21-4FF3-A892-0FFF7C786459}">
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
-  <threadedComment ref="Z5" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4E6D4868-D8FD-4E11-A834-0F27B60103A4}">
+  <threadedComment ref="AA5" dT="2023-11-13T08:20:17.43" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{4E6D4868-D8FD-4E11-A834-0F27B60103A4}">
     <text>出血症狀,皮疹/紅疹/出疹,肌肉痛,後眼窩痛,發燒,嘔吐,頭痛,關節痛,噁心,白血球減少,血壓帶試驗陽性,骨頭痛,其他症狀</text>
   </threadedComment>
-  <threadedComment ref="BP5" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{7388E158-1C1F-4624-96B0-F5CBA06C4997}">
+  <threadedComment ref="BQ5" dT="2023-11-13T08:27:59.78" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{7388E158-1C1F-4624-96B0-F5CBA06C4997}">
     <text>與確定/極可能/可能病例曾有接觸或暴露共同感染源,具血體液接觸,具實驗室暴露史,曾食用受汙染的水或食物,醫源型</text>
   </threadedComment>
-  <threadedComment ref="BV5" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{F5CB20B1-8C41-4510-87E8-649A719C004D}">
+  <threadedComment ref="BW5" dT="2023-11-13T08:30:16.45" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{F5CB20B1-8C41-4510-87E8-649A719C004D}">
     <text>嚴重血漿滲漏導致休克,嚴重血漿滲漏導致體液蓄積及呼吸窘迫,嚴重出血(由臨床醫師評估),嚴重器官損傷</text>
   </threadedComment>
-  <threadedComment ref="BW5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{386CA696-B5D3-4489-B743-615867B6AF21}">
+  <threadedComment ref="BX5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{386CA696-B5D3-4489-B743-615867B6AF21}">
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
-  <threadedComment ref="BY5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{2D1601D5-127C-4277-98B2-158D3DE85A86}">
+  <threadedComment ref="BZ5" dT="2023-11-13T08:31:03.53" personId="{62450F45-5D75-49AA-AB40-70D94AADCBC2}" id="{2D1601D5-127C-4277-98B2-158D3DE85A86}">
     <text>肝臟(GOT或GPT&gt;=1000 IU/L),
 中樞神經系統：意識受損,心臟衰竭</text>
   </threadedComment>
@@ -2460,321 +2471,325 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:BX5"/>
+  <dimension ref="A1:BY5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.796875" customWidth="1"/>
-    <col min="22" max="22" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.19921875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.8984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="26.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.3984375" customWidth="1"/>
-    <col min="32" max="32" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.3984375" customWidth="1"/>
-    <col min="35" max="35" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="18.09765625" customWidth="1"/>
-    <col min="38" max="38" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26" bestFit="1" customWidth="1"/>
-    <col min="41" max="46" width="26" customWidth="1"/>
-    <col min="47" max="47" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="29.09765625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="22.19921875" customWidth="1"/>
-    <col min="54" max="54" width="27.8984375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="33.3984375" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="22.19921875" customWidth="1"/>
-    <col min="58" max="58" width="32.59765625" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="32.59765625" customWidth="1"/>
-    <col min="61" max="61" width="32.09765625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.59765625" customWidth="1"/>
-    <col min="67" max="67" width="31" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.296875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="32.3984375" customWidth="1"/>
-    <col min="71" max="71" width="13.8984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="12.8984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="20" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="37.09765625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="10.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.796875" customWidth="1"/>
+    <col min="23" max="23" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.8984375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.3984375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.3984375" customWidth="1"/>
+    <col min="33" max="33" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.3984375" customWidth="1"/>
+    <col min="36" max="36" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.09765625" customWidth="1"/>
+    <col min="39" max="39" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.296875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="26" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="26" customWidth="1"/>
+    <col min="48" max="48" width="16.09765625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="29.09765625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.59765625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="22.19921875" customWidth="1"/>
+    <col min="55" max="55" width="27.8984375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="33.3984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="22.19921875" customWidth="1"/>
+    <col min="59" max="59" width="32.59765625" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="32.59765625" customWidth="1"/>
+    <col min="62" max="62" width="32.09765625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="65" max="67" width="23.59765625" customWidth="1"/>
+    <col min="68" max="68" width="31" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="32.3984375" customWidth="1"/>
+    <col min="72" max="72" width="13.8984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="20" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:77" ht="43.5" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="16" t="s">
+      <c r="BT1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="16" t="s">
+      <c r="BU1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="16" t="s">
+      <c r="BV1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="16" t="s">
+      <c r="BW1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="16" t="s">
+      <c r="BX1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:76" s="2" customFormat="1" ht="43" customHeight="1">
-      <c r="A2" s="8"/>
+    <row r="2" spans="1:77" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A2" s="5"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="10"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -2782,530 +2797,534 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="AG2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AH2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="AJ2" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AK2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="8"/>
       <c r="AW2" s="8"/>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="BA2" s="8" t="s">
         <v>102</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BC2" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BD2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="BH2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="BI2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BM2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BR2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BS2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="8"/>
       <c r="BT2" s="8"/>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="8"/>
+      <c r="BV2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="8" t="s">
+      <c r="BW2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="8" t="s">
+      <c r="BX2" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="BX2" s="8"/>
+      <c r="BY2" s="8"/>
     </row>
-    <row r="3" spans="1:76" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:77" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="8" t="s">
+      <c r="AV3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="8" t="s">
+      <c r="AW3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="8" t="s">
+      <c r="AX3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="8" t="s">
+      <c r="AY3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="8" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="BA3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="8" t="s">
+      <c r="BB3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="8" t="s">
+      <c r="BC3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="8" t="s">
+      <c r="BD3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="8" t="s">
+      <c r="BE3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="8" t="s">
+      <c r="BF3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="8" t="s">
+      <c r="BG3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BH3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="8" t="s">
+      <c r="BI3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="8" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="BK3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="BK3" s="8" t="s">
+      <c r="BL3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BL3" s="8" t="s">
+      <c r="BM3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="BM3" s="8" t="s">
+      <c r="BN3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="BN3" s="8" t="s">
+      <c r="BO3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BP3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BR3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BR3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BS3" s="16" t="s">
+      <c r="BT3" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="BT3" s="16" t="s">
+      <c r="BU3" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="BU3" s="16" t="s">
+      <c r="BV3" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="BV3" s="16" t="s">
+      <c r="BW3" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="BW3" s="16" t="s">
+      <c r="BX3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="BX3" s="8" t="s">
+      <c r="BY3" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:76" ht="48.5" customHeight="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:77" ht="48.5" customHeight="1">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="8">
+      <c r="F4" s="19"/>
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="I4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="M4" s="8">
+      <c r="N4" s="8">
         <v>12345</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>54321</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="P4" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="19" t="b">
+      <c r="S4" s="8"/>
+      <c r="T4" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="8">
+      <c r="U4" s="8">
         <v>-5</v>
       </c>
-      <c r="U4" s="8">
+      <c r="V4" s="8">
         <v>-30</v>
       </c>
-      <c r="V4" s="19" t="b">
+      <c r="W4" s="19" t="b">
         <v>0</v>
-      </c>
-      <c r="W4" s="8">
-        <v>-25</v>
       </c>
       <c r="X4" s="8">
         <v>-25</v>
       </c>
-      <c r="Y4" s="19" t="b">
+      <c r="Y4" s="8">
+        <v>-25</v>
+      </c>
+      <c r="Z4" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA4" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AC4" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="AC4" s="19" t="b">
+      <c r="AD4" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AD4" s="8">
+      <c r="AE4" s="8">
         <v>1</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AF4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AF4" s="8">
+      <c r="AG4" s="8">
         <v>-40</v>
       </c>
-      <c r="AG4" s="8">
+      <c r="AH4" s="8">
         <v>-35</v>
       </c>
-      <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
       <c r="AL4" s="8"/>
       <c r="AM4" s="8"/>
-      <c r="AN4" s="8" t="s">
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="AO4" s="8">
+      <c r="AP4" s="8">
         <v>1</v>
       </c>
-      <c r="AP4" s="19" t="b">
+      <c r="AQ4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AR4" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="AR4" s="8" t="s">
+      <c r="AS4" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AS4" s="8" t="s">
+      <c r="AT4" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AT4" s="8" t="s">
+      <c r="AU4" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AU4" s="19" t="b">
+      <c r="AV4" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AV4" s="8" t="s">
+      <c r="AW4" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="AW4" s="8" t="s">
+      <c r="AX4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AX4" s="8">
+      <c r="AY4" s="8">
         <v>5</v>
-      </c>
-      <c r="AY4" s="8">
-        <v>-10</v>
       </c>
       <c r="AZ4" s="8">
         <v>-10</v>
@@ -3323,139 +3342,144 @@
         <v>-10</v>
       </c>
       <c r="BE4" s="8">
+        <v>-10</v>
+      </c>
+      <c r="BF4" s="8">
         <v>2</v>
       </c>
-      <c r="BF4" s="8" t="s">
+      <c r="BG4" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="BG4" s="8" t="s">
+      <c r="BH4" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="BH4" s="8" t="s">
+      <c r="BI4" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="BI4" s="8">
+      <c r="BJ4" s="8">
         <v>-10</v>
       </c>
-      <c r="BJ4" s="8" t="s">
+      <c r="BK4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="19" t="b">
-        <v>0</v>
-      </c>
+      <c r="BL4" s="8"/>
       <c r="BM4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BN4" s="8">
+      <c r="BN4" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="8">
         <v>-7</v>
       </c>
-      <c r="BO4" s="8" t="s">
+      <c r="BP4" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="BP4" s="8" t="s">
+      <c r="BQ4" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="BQ4" s="19" t="b">
+      <c r="BR4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BR4" s="8" t="s">
+      <c r="BS4" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="BS4" s="16" t="s">
+      <c r="BT4" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="BT4" s="16" t="s">
+      <c r="BU4" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="BU4" s="19" t="b">
+      <c r="BV4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="BV4" s="16" t="s">
+      <c r="BW4" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="BW4" s="16" t="s">
+      <c r="BX4" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
     </row>
-    <row r="5" spans="1:76" ht="48.5" customHeight="1">
-      <c r="A5" s="16">
+    <row r="5" spans="1:77" ht="48.5" customHeight="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="8">
+      <c r="F5" s="19"/>
+      <c r="G5" s="8">
         <v>2</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="I5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="M5" s="8">
+      <c r="N5" s="8">
         <v>12345</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>54321</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="P5" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="Q5" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="R5" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="19" t="b">
+      <c r="S5" s="8"/>
+      <c r="T5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="19" t="b">
+      <c r="V5" s="8"/>
+      <c r="W5" s="19" t="b">
         <v>1</v>
-      </c>
-      <c r="W5" s="8">
-        <v>-20</v>
       </c>
       <c r="X5" s="8">
         <v>-20</v>
       </c>
-      <c r="Y5" s="19" t="b">
+      <c r="Y5" s="8">
+        <v>-20</v>
+      </c>
+      <c r="Z5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AC5" s="19" t="b">
+      <c r="AD5" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
@@ -3467,13 +3491,13 @@
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="19"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="19"/>
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -3489,43 +3513,44 @@
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
-      <c r="BL5" s="19"/>
+      <c r="BL5" s="8"/>
       <c r="BM5" s="19"/>
-      <c r="BN5" s="8"/>
+      <c r="BN5" s="19"/>
       <c r="BO5" s="8"/>
       <c r="BP5" s="8"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="16"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="8"/>
       <c r="BT5" s="16"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="16"/>
+      <c r="BU5" s="16"/>
+      <c r="BV5" s="19"/>
       <c r="BW5" s="16"/>
-      <c r="BX5" s="8"/>
+      <c r="BX5" s="16"/>
+      <c r="BY5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{E0959B5A-A2D3-47A1-AFFA-49CE3ED3A8AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{E0959B5A-A2D3-47A1-AFFA-49CE3ED3A8AD}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V5 S4:S5 AC4:AC5 AP4:AP5 AU4:AU5 BL4:BM5 BQ4:BQ5 BU4:BU5 Y4:Y5" xr:uid="{B15BE23D-9B66-41F4-A6B7-4D77940DDE5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:W5 T4:T5 AD4:AD5 AQ4:AQ5 AV4:AV5 BM4:BN5 BR4:BR5 BV4:BV5 Z4:Z5" xr:uid="{B15BE23D-9B66-41F4-A6B7-4D77940DDE5E}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{8605B041-53F0-47C6-9FEC-D374B97E9FE8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{8605B041-53F0-47C6-9FEC-D374B97E9FE8}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4:AO5 AD4:AD5" xr:uid="{5D9C5C47-0BBC-480B-8EF7-2424F93E005C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AP5 AE4:AE5" xr:uid="{5D9C5C47-0BBC-480B-8EF7-2424F93E005C}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4:AX5" xr:uid="{F310C7A6-6456-4364-809E-9AEB57D9D05F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY4:AY5" xr:uid="{F310C7A6-6456-4364-809E-9AEB57D9D05F}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{89D38661-86DC-48DF-9465-CD37AC3F4C83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF4:BF5" xr:uid="{89D38661-86DC-48DF-9465-CD37AC3F4C83}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{CF19266B-8A5A-4866-A216-3B03041517EC}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3538,61 +3563,61 @@
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AE4:AE5 BG4:BG5 O4:O5</xm:sqref>
+          <xm:sqref>AF4:AF5 BH4:BH5 P4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7D74A56-6BF3-431D-A2A8-6533E27ADF41}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AB5</xm:sqref>
+          <xm:sqref>AC4:AC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{139A4F23-76AA-4D8D-91D2-14405648C55F}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AH4:AH5 AK4:AK5 AQ4:AQ5</xm:sqref>
+          <xm:sqref>AI4:AI5 AL4:AL5 AR4:AR5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F053CCB0-D376-42A9-9F24-BFC5D6C5A5BF}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AS4:AS5</xm:sqref>
+          <xm:sqref>AT4:AT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F5CDCFC-E9F5-4AB9-A7CE-9B25EF8A4EEC}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4:AV5</xm:sqref>
+          <xm:sqref>AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51BE2FEE-7496-4694-910F-9C1187A0D1BC}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4:AW5</xm:sqref>
+          <xm:sqref>AX4:AX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6618990F-F6A6-4734-8CC7-7D977FA5E456}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4:BH5</xm:sqref>
+          <xm:sqref>BI4:BI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{68A49987-5B7B-458A-ABA0-4F9ECC76735A}">
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BR4:BR5</xm:sqref>
+          <xm:sqref>BS4:BS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5B722554-733D-4A71-A570-1AB09415249C}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{99E8BF95-BEE7-4BCD-8F06-A23FDA1AC3A2}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3602,727 +3627,737 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BZ5"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" style="5"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="43.5" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:79" ht="43.5" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AE1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="8" t="s">
+      <c r="AO1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AP1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AU1" s="8" t="s">
+      <c r="AV1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AW1" s="8" t="s">
+      <c r="AX1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AZ1" s="8" t="s">
+      <c r="BA1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BA1" s="8" t="s">
+      <c r="BB1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BB1" s="8" t="s">
+      <c r="BC1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BC1" s="8" t="s">
+      <c r="BD1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BD1" s="8" t="s">
+      <c r="BE1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="BE1" s="8" t="s">
+      <c r="BF1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="BF1" s="8" t="s">
+      <c r="BG1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="BG1" s="8" t="s">
+      <c r="BH1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="BH1" s="8" t="s">
+      <c r="BI1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="BJ1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BL1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BM1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BN1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BO1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BO1" s="8" t="s">
+      <c r="BP1" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="BP1" s="8" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="BQ1" s="8" t="s">
+      <c r="BR1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="BR1" s="8" t="s">
+      <c r="BS1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="BS1" s="16" t="s">
+      <c r="BT1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="BT1" s="16" t="s">
+      <c r="BU1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="BU1" s="16" t="s">
+      <c r="BV1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="BV1" s="16" t="s">
+      <c r="BW1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="BW1" s="16" t="s">
+      <c r="BX1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BX1" s="8" t="s">
+      <c r="BY1" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="BY1" s="16" t="s">
+      <c r="BZ1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="BZ1" s="8" t="s">
+      <c r="CA1" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:78" s="2" customFormat="1" ht="43" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="8"/>
+    <row r="2" spans="1:79" s="2" customFormat="1" ht="43" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="10" t="s">
+        <v>81</v>
+      </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="W2" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="X2" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Y2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AE2" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AF2" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="AG2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="AH2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI2" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="AI2" s="8" t="s">
-        <v>92</v>
       </c>
       <c r="AJ2" s="8" t="s">
         <v>92</v>
       </c>
       <c r="AK2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>94</v>
       </c>
       <c r="AM2" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AQ2" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AR2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="AR2" s="8" t="s">
+      <c r="AS2" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AV2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AV2" s="8"/>
       <c r="AW2" s="8"/>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AZ2" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="AZ2" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="BA2" s="8" t="s">
         <v>102</v>
       </c>
       <c r="BB2" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BC2" s="8" t="s">
         <v>103</v>
       </c>
       <c r="BD2" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="BE2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BF2" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="BF2" s="8" t="s">
+      <c r="BG2" s="8" t="s">
         <v>106</v>
-      </c>
-      <c r="BG2" s="8" t="s">
-        <v>107</v>
       </c>
       <c r="BH2" s="8" t="s">
         <v>107</v>
       </c>
       <c r="BI2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="BJ2" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8" t="s">
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="BL2" s="8" t="s">
+      <c r="BM2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BM2" s="8" t="s">
+      <c r="BN2" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="BN2" s="8" t="s">
+      <c r="BO2" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8" t="s">
+      <c r="BP2" s="8"/>
+      <c r="BQ2" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="BQ2" s="8" t="s">
+      <c r="BR2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BR2" s="8" t="s">
+      <c r="BS2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="BS2" s="20"/>
       <c r="BT2" s="20"/>
-      <c r="BU2" s="8" t="s">
+      <c r="BU2" s="20"/>
+      <c r="BV2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="BV2" s="20" t="s">
+      <c r="BW2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="BW2" s="20" t="s">
+      <c r="BX2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="BX2" s="8"/>
-      <c r="BY2" s="20" t="s">
+      <c r="BY2" s="8"/>
+      <c r="BZ2" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="BZ2" s="8"/>
+      <c r="CA2" s="8"/>
     </row>
-    <row r="3" spans="1:78" s="3" customFormat="1" ht="53" customHeight="1">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:79" s="3" customFormat="1" ht="53" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AG3" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AH3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AI3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AK3" s="8" t="s">
+      <c r="AL3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AL3" s="8" t="s">
+      <c r="AM3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AM3" s="8" t="s">
+      <c r="AN3" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AO3" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AP3" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="AP3" s="8" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AR3" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="AR3" s="8" t="s">
+      <c r="AS3" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="AS3" s="8" t="s">
+      <c r="AT3" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="AT3" s="8" t="s">
+      <c r="AU3" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="AU3" s="8" t="s">
+      <c r="AV3" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="AV3" s="8" t="s">
+      <c r="AW3" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="AW3" s="8" t="s">
+      <c r="AX3" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="AX3" s="8" t="s">
+      <c r="AY3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="AY3" s="8" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="BA3" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="BA3" s="8" t="s">
+      <c r="BB3" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="BB3" s="8" t="s">
+      <c r="BC3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="BC3" s="8" t="s">
+      <c r="BD3" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="BD3" s="8" t="s">
+      <c r="BE3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="BE3" s="8" t="s">
+      <c r="BF3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="BF3" s="8" t="s">
+      <c r="BG3" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="BG3" s="8" t="s">
+      <c r="BH3" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="BH3" s="8" t="s">
+      <c r="BI3" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="BI3" s="8" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="BK3" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="BK3" s="8" t="s">
+      <c r="BL3" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="BL3" s="8" t="s">
+      <c r="BM3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="BM3" s="8" t="s">
+      <c r="BN3" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="BN3" s="8" t="s">
+      <c r="BO3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="BO3" s="8" t="s">
+      <c r="BP3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="BP3" s="8" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="BQ3" s="8" t="s">
+      <c r="BR3" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="BR3" s="8" t="s">
+      <c r="BS3" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="BS3" s="16" t="s">
+      <c r="BT3" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="BT3" s="16" t="s">
+      <c r="BU3" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="BU3" s="16" t="s">
+      <c r="BV3" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="BV3" s="16" t="s">
+      <c r="BW3" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="BW3" s="16" t="s">
+      <c r="BX3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="BX3" s="8" t="s">
+      <c r="BY3" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="BY3" s="16" t="s">
+      <c r="BZ3" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="BZ3" s="8" t="s">
+      <c r="CA3" s="8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:78" ht="48.5" customHeight="1">
-      <c r="A4" s="16">
+    <row r="4" spans="1:79" ht="48.5" customHeight="1">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="C4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="E4" s="22">
+      <c r="F4" s="22">
         <v>45306</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="19"/>
+      <c r="O4" s="8"/>
       <c r="P4" s="19"/>
       <c r="Q4" s="19"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="19" t="b">
+      <c r="R4" s="19"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="19"/>
       <c r="X4" s="8"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="19"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="8" t="s">
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="AC4" s="19" t="b">
+      <c r="AD4" s="19" t="b">
         <v>0</v>
       </c>
-      <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
@@ -4334,13 +4369,13 @@
       <c r="AM4" s="8"/>
       <c r="AN4" s="8"/>
       <c r="AO4" s="8"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="19"/>
       <c r="AR4" s="8"/>
       <c r="AS4" s="8"/>
       <c r="AT4" s="8"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="19"/>
       <c r="AW4" s="8"/>
       <c r="AX4" s="8"/>
       <c r="AY4" s="8"/>
@@ -4356,99 +4391,102 @@
       <c r="BI4" s="8"/>
       <c r="BJ4" s="8"/>
       <c r="BK4" s="8"/>
-      <c r="BL4" s="19"/>
+      <c r="BL4" s="8"/>
       <c r="BM4" s="19"/>
-      <c r="BN4" s="8"/>
+      <c r="BN4" s="19"/>
       <c r="BO4" s="8"/>
       <c r="BP4" s="8"/>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="8"/>
-      <c r="BS4" s="23"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="8"/>
       <c r="BT4" s="23"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="23"/>
+      <c r="BU4" s="23"/>
+      <c r="BV4" s="19"/>
       <c r="BW4" s="23"/>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="23"/>
-      <c r="BZ4" s="8"/>
+      <c r="BX4" s="23"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="23"/>
+      <c r="CA4" s="8"/>
     </row>
-    <row r="5" spans="1:78" ht="48.5" customHeight="1">
-      <c r="A5" s="16">
+    <row r="5" spans="1:79" ht="48.5" customHeight="1">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="E5" s="22">
+      <c r="F5" s="22">
         <v>45306</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="8"/>
+      <c r="P5" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="Q5" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="R5" s="19" t="s">
         <v>462</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="19"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="19"/>
       <c r="X5" s="8"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="19"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="AC5" s="19" t="b">
+      <c r="AD5" s="19" t="b">
         <v>1</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AE5" s="8">
         <v>2</v>
       </c>
-      <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
-      <c r="AH5" s="8" t="s">
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="AI5" s="8">
-        <v>-50</v>
       </c>
       <c r="AJ5" s="8">
         <v>-50</v>
       </c>
-      <c r="AK5" s="8"/>
+      <c r="AK5" s="8">
+        <v>-50</v>
+      </c>
       <c r="AL5" s="8"/>
       <c r="AM5" s="8"/>
       <c r="AN5" s="8"/>
       <c r="AO5" s="8"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="8"/>
+      <c r="AP5" s="8"/>
+      <c r="AQ5" s="19"/>
       <c r="AR5" s="8"/>
       <c r="AS5" s="8"/>
       <c r="AT5" s="8"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="8"/>
+      <c r="AU5" s="8"/>
+      <c r="AV5" s="19"/>
       <c r="AW5" s="8"/>
       <c r="AX5" s="8"/>
       <c r="AY5" s="8"/>
@@ -4464,45 +4502,46 @@
       <c r="BI5" s="8"/>
       <c r="BJ5" s="8"/>
       <c r="BK5" s="8"/>
-      <c r="BL5" s="19"/>
+      <c r="BL5" s="8"/>
       <c r="BM5" s="19"/>
-      <c r="BN5" s="8"/>
+      <c r="BN5" s="19"/>
       <c r="BO5" s="8"/>
       <c r="BP5" s="8"/>
-      <c r="BQ5" s="19"/>
-      <c r="BR5" s="8"/>
-      <c r="BS5" s="23"/>
+      <c r="BQ5" s="8"/>
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="8"/>
       <c r="BT5" s="23"/>
-      <c r="BU5" s="19"/>
-      <c r="BV5" s="23"/>
+      <c r="BU5" s="23"/>
+      <c r="BV5" s="19"/>
       <c r="BW5" s="23"/>
-      <c r="BX5" s="8"/>
-      <c r="BY5" s="23"/>
-      <c r="BZ5" s="8"/>
+      <c r="BX5" s="23"/>
+      <c r="BY5" s="8"/>
+      <c r="BZ5" s="23"/>
+      <c r="CA5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BE4:BE5" xr:uid="{26E35930-72B9-4CCC-8E43-9FF0AE2C5BC4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF4:BF5" xr:uid="{26E35930-72B9-4CCC-8E43-9FF0AE2C5BC4}">
       <formula1>"1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX4:AX5" xr:uid="{97318314-3FB2-4C9F-A63C-F46BBD599AB4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AY4:AY5" xr:uid="{97318314-3FB2-4C9F-A63C-F46BBD599AB4}">
       <formula1>"1,2,3,4,5,6,7,8"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4:AO5 AD4:AD5" xr:uid="{75A8F620-AB95-463E-8265-7C801AD1BFA4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4:AP5 AE4:AE5" xr:uid="{75A8F620-AB95-463E-8265-7C801AD1BFA4}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F5" xr:uid="{B748B534-5DF2-4A41-8601-7585A3BF107B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G5" xr:uid="{B748B534-5DF2-4A41-8601-7585A3BF107B}">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V4:V5 S4:S5 AC4:AC5 AP4:AP5 AU4:AU5 BL4:BM5 BQ4:BQ5 BU4:BU5 Y4:Y5" xr:uid="{A2A84FEF-47A3-414D-ADF2-28C18E19B4E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W4:W5 T4:T5 AD4:AD5 AQ4:AQ5 AV4:AV5 BM4:BN5 BR4:BR5 BV4:BV5 Z4:Z5" xr:uid="{A2A84FEF-47A3-414D-ADF2-28C18E19B4E8}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D5" xr:uid="{78211AFB-DE18-4EBE-AC95-73AC7B60E04F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5" xr:uid="{78211AFB-DE18-4EBE-AC95-73AC7B60E04F}">
       <formula1>"True,False"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:Q5" xr:uid="{A5941872-B0D2-471C-8A7E-6F7B754547E6}">
-      <formula1>INDIRECT(O4)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:R5" xr:uid="{A5941872-B0D2-471C-8A7E-6F7B754547E6}">
+      <formula1>INDIRECT(P4)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4514,61 +4553,61 @@
           <x14:formula1>
             <xm:f>清單!$F$2:$F$18</xm:f>
           </x14:formula1>
-          <xm:sqref>BR4:BR5</xm:sqref>
+          <xm:sqref>BS4:BS5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B0140AB-D2AA-48B8-BA8D-E82B40031EAB}">
           <x14:formula1>
             <xm:f>清單!$G$5:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>BH4:BH5</xm:sqref>
+          <xm:sqref>BI4:BI5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5BD8234-BD14-4818-80B3-B059E3F7BCF8}">
           <x14:formula1>
             <xm:f>清單!$K$2:$K$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AW4:AW5</xm:sqref>
+          <xm:sqref>AX4:AX5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4141B1D9-BB7A-418A-AA1F-31DB69DF2FA7}">
           <x14:formula1>
             <xm:f>清單!$J$2:$J$10</xm:f>
           </x14:formula1>
-          <xm:sqref>AV4:AV5</xm:sqref>
+          <xm:sqref>AW4:AW5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A04E47E1-23FA-48D6-909C-EAC323ED5DE2}">
           <x14:formula1>
             <xm:f>清單!$I$2:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>AS4:AS5</xm:sqref>
+          <xm:sqref>AT4:AT5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DAFBABD4-2C63-48F4-AAF6-0037554B9E13}">
           <x14:formula1>
             <xm:f>清單!$E$2:$E$34</xm:f>
           </x14:formula1>
-          <xm:sqref>AH4:AH5 AK4:AK5 AQ4:AQ5</xm:sqref>
+          <xm:sqref>AI4:AI5 AL4:AL5 AR4:AR5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{971A2045-CA42-4C53-B353-871586142352}">
           <x14:formula1>
             <xm:f>清單!$A$2:$A$36</xm:f>
           </x14:formula1>
-          <xm:sqref>AB4:AB5</xm:sqref>
+          <xm:sqref>AC4:AC5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB4E135E-30FF-42B0-ADF4-462322C37591}">
           <x14:formula1>
             <xm:f>清單!$B$2:$B$23</xm:f>
           </x14:formula1>
-          <xm:sqref>AE4:AE5 BG4:BG5 O4:O5</xm:sqref>
+          <xm:sqref>AF4:AF5 BH4:BH5 P4:P5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3701EA99-CC4E-453D-80FE-5472F19D86E5}">
           <x14:formula1>
             <xm:f>清單!$T$2:$T$12</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G5</xm:sqref>
+          <xm:sqref>H4:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A89652DE-4633-4C80-A2E6-77B20BCF67F3}">
           <x14:formula1>
             <xm:f>清單!$S$2:$S$12</xm:f>
           </x14:formula1>
-          <xm:sqref>H4:H5</xm:sqref>
+          <xm:sqref>I4:I5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
